--- a/xlsx/右派_intext.xlsx
+++ b/xlsx/右派_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="896">
   <si>
     <t>右派</t>
   </si>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BF%BC%E9%8B%92</t>
   </si>
   <si>
-    <t>翼鋒</t>
+    <t>翼锋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E6%B4%BE</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E4%B8%96%E7%95%8C</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>民族主義</t>
+    <t>民族主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E7%B5%B1</t>
   </si>
   <si>
-    <t>傳統</t>
+    <t>传统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BA%AD</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99</t>
   </si>
   <si>
-    <t>猶太教</t>
+    <t>犹太教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99</t>
@@ -95,13 +95,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會主義</t>
+    <t>社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>共產主義</t>
+    <t>共产主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E4%B8%BB%E4%B9%89</t>
@@ -113,19 +113,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8</t>
   </si>
   <si>
-    <t>政黨</t>
+    <t>政党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%88%86%E5%B1%A4</t>
   </si>
   <si>
-    <t>社會分層</t>
+    <t>社会分层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%8D%E5%B9%B3%E7%AD%89</t>
   </si>
   <si>
-    <t>社會不平等</t>
+    <t>社会不平等</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%94%BE%E4%BB%BB</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>資本主義</t>
+    <t>资本主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%BB%E6%B0%91</t>
@@ -155,25 +155,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>法國大革命</t>
+    <t>法国大革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>第三階級</t>
+    <t>第三阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由主義</t>
+    <t>自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E7%B4%9A%E6%9C%83%E8%AD%B0_(%E6%B3%95%E8%98%AD%E8%A5%BF)</t>
   </si>
   <si>
-    <t>三級會議 (法蘭西)</t>
+    <t>三级会议 (法兰西)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E6%B0%91%E8%AE%AE%E4%BC%9A</t>
@@ -191,13 +191,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>君主主義</t>
+    <t>君主主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%B7%A6%E6%B4%BE</t>
   </si>
   <si>
-    <t>極左派</t>
+    <t>极左派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BF%80%E8%BF%9B%E4%B8%BB%E4%B9%89</t>
@@ -209,13 +209,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%96%93%E5%81%8F%E5%B7%A6</t>
   </si>
   <si>
-    <t>中間偏左</t>
+    <t>中间偏左</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%96%93%E6%B4%BE</t>
   </si>
   <si>
-    <t>中間派</t>
+    <t>中间派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E6%B4%BE</t>
@@ -227,19 +227,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%96%93%E5%81%8F%E5%8F%B3</t>
   </si>
   <si>
-    <t>中間偏右</t>
+    <t>中间偏右</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E6%86%B2%E5%88%B6</t>
   </si>
   <si>
-    <t>君主立憲制</t>
+    <t>君主立宪制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%8F%B3%E6%B4%BE</t>
   </si>
   <si>
-    <t>極右派</t>
+    <t>极右派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%9A%87%E6%B4%BE</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%B5%B1%E6%B4%BE</t>
   </si>
   <si>
-    <t>正統派</t>
+    <t>正统派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BE%B7%E8%92%99%C2%B7%E4%BC%AF%E5%85%8B</t>
@@ -263,67 +263,67 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%A5%91%E7%B4%84</t>
   </si>
   <si>
-    <t>社會契約</t>
+    <t>社会契约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%95%B6%E6%96%AF%E5%AF%86</t>
   </si>
   <si>
-    <t>亞當斯密</t>
+    <t>亚当斯密</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AF%8C%E8%AB%96</t>
   </si>
   <si>
-    <t>國富論</t>
+    <t>国富论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>自由貿易</t>
+    <t>自由贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>古典自由主義</t>
+    <t>古典自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會自由主義</t>
+    <t>社会自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8%E4%BA%BA</t>
   </si>
   <si>
-    <t>經濟學人</t>
+    <t>经济学人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%80%E7%89%A9%E6%B3%95</t>
   </si>
   <si>
-    <t>穀物法</t>
+    <t>谷物法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>奧地利經濟學派</t>
+    <t>奥地利经济学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93%E4%BF%9D%E8%AD%B7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>貿易保護主義</t>
+    <t>贸易保护主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會民主主義</t>
+    <t>社会民主主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E7%A4%BE%E4%BC%9A%E5%85%9A</t>
@@ -341,37 +341,37 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>保守主義</t>
+    <t>保守主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%85%89%E8%AD%9C</t>
   </si>
   <si>
-    <t>政治光譜</t>
+    <t>政治光谱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>自由市場</t>
+    <t>自由市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由意志主義</t>
+    <t>自由意志主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E8%AB%BE%E9%BD%8A%E5%85%8B</t>
   </si>
   <si>
-    <t>羅伯特·諾齊克</t>
+    <t>罗伯特·诺齐克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>現代自由主義</t>
+    <t>现代自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E7%BD%97%E5%B0%94%E6%96%AF</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新保守主義</t>
+    <t>新保守主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
@@ -395,19 +395,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E8%98%AD%E6%9B%B2%E7%B7%9A</t>
   </si>
   <si>
-    <t>諾蘭曲線</t>
+    <t>诺兰曲线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E7%AD%89%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>平等主義</t>
+    <t>平等主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%9C%98%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社團主義</t>
+    <t>社团主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E6%94%BF%E5%BA%9C</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府共產主義</t>
+    <t>无政府共产主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>經濟自由主義</t>
+    <t>经济自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E8%87%AA%E7%94%B1</t>
@@ -443,19 +443,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9D%B1</t>
   </si>
   <si>
-    <t>中東</t>
+    <t>中东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%95%99%E5%88%86%E9%9B%A2</t>
   </si>
   <si>
-    <t>政教分離</t>
+    <t>政教分离</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>個人主義</t>
+    <t>个人主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%96%87%E5%8C%96</t>
@@ -467,13 +467,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A5%BF%E6%96%AF%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>法西斯主義</t>
+    <t>法西斯主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E9%AB%94%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>集體主義</t>
+    <t>集体主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%B0%BC%E5%B0%94%C2%B7%E5%B8%95%E7%89%B9%E9%87%8C%E5%85%8B%C2%B7%E8%8E%AB%E4%BC%8A%E5%B0%BC%E6%B1%89</t>
@@ -491,15 +491,12 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>主權</t>
+    <t>主权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B8%E6%98%93%E4%BF%9D%E6%8A%A4%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>贸易保护主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%88%E5%A4%A9%E4%B8%8E%E5%90%8E%E5%A4%A9</t>
   </si>
   <si>
@@ -509,19 +506,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E9%BB%A8</t>
   </si>
   <si>
-    <t>共產黨</t>
+    <t>共产党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%94%A2%E9%9A%8E%E7%B4%9A%E5%B0%88%E6%94%BF</t>
   </si>
   <si>
-    <t>無產階級專政</t>
+    <t>无产阶级专政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>經濟自由</t>
+    <t>经济自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%80%E6%9C%89%E6%9D%83</t>
@@ -533,13 +530,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E5%8A%83%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>計劃經濟</t>
+    <t>计划经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E7%AD%89%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>平等原則</t>
+    <t>平等原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E6%A0%B9</t>
@@ -551,97 +548,97 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E8%92%99%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>啟蒙時代</t>
+    <t>启蒙时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%B2%A1</t>
   </si>
   <si>
-    <t>公共財</t>
+    <t>公共财</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%A4%8E%E8%A8%AD%E6%96%BD</t>
   </si>
   <si>
-    <t>基礎設施</t>
+    <t>基础设施</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8E%E8%B7%AF%E8%B2%BB</t>
   </si>
   <si>
-    <t>過路費</t>
+    <t>过路费</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%8B%E4%B8%8D%E8%A6%8B%E7%9A%84%E6%89%8B</t>
   </si>
   <si>
-    <t>看不見的手</t>
+    <t>看不见的手</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%B2%BF%E6%98%93%E5%8D%80</t>
   </si>
   <si>
-    <t>自由貿易區</t>
+    <t>自由贸易区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%97%E4%BD%9C%E6%AC%8A</t>
   </si>
   <si>
-    <t>著作權</t>
+    <t>着作权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A8%99</t>
   </si>
   <si>
-    <t>商標</t>
+    <t>商标</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%95%86%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>重商主義</t>
+    <t>重商主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%AC%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>威權主義</t>
+    <t>威权主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E7%B2%B9%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>民粹主義</t>
+    <t>民粹主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B3%E6%B4%BE%E6%B0%91%E7%B2%B9%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>右派民粹主義</t>
+    <t>右派民粹主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%9A%87%E9%BB%A8</t>
   </si>
   <si>
-    <t>保皇黨</t>
+    <t>保皇党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A6%AC%E6%96%AF%C2%B7%E9%9C%8D%E5%B8%83%E6%96%AF</t>
   </si>
   <si>
-    <t>托馬斯·霍布斯</t>
+    <t>托马斯·霍布斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E8%A3%81</t>
   </si>
   <si>
-    <t>獨裁</t>
+    <t>独裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A2%AD</t>
   </si>
   <si>
-    <t>盧梭</t>
+    <t>卢梭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E5%88%B6</t>
@@ -659,13 +656,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E6%95%99%E6%97%A8%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>原教旨主義</t>
+    <t>原教旨主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%97%9D%E5%BE%A9%E8%88%88</t>
   </si>
   <si>
-    <t>文藝復興</t>
+    <t>文艺复兴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E6%B3%95</t>
@@ -683,31 +680,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AD%89%E7%B4%9A%E5%88%B6%E5%BA%A6</t>
   </si>
   <si>
-    <t>等級制度</t>
+    <t>等级制度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>古典主義</t>
+    <t>古典主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>愛國主義</t>
+    <t>爱国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E6%96%B9%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>地方主義</t>
+    <t>地方主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%80%E5%9F%9F%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>區域主義</t>
+    <t>区域主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%8A%A8</t>
@@ -725,13 +722,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E6%80%A7</t>
   </si>
   <si>
-    <t>現代性</t>
+    <t>现代性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E9%80%B2%E6%AD%A5</t>
   </si>
   <si>
-    <t>社會進步</t>
+    <t>社会进步</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/T%C2%B7S%C2%B7%E8%89%BE%E7%95%A5%E7%89%B9</t>
@@ -743,37 +740,37 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%88%B0</t>
   </si>
   <si>
-    <t>二戰</t>
+    <t>二战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%AE%E8%83%8E</t>
   </si>
   <si>
-    <t>墮胎</t>
+    <t>堕胎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%A8%82%E6%AD%BB</t>
   </si>
   <si>
-    <t>安樂死</t>
+    <t>安乐死</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%80%A7%E6%88%80</t>
   </si>
   <si>
-    <t>同性戀</t>
+    <t>同性恋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A9%9A%E5%89%8D%E6%80%A7%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>婚前性行為</t>
+    <t>婚前性行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E9%81%87</t>
@@ -785,19 +782,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>女性主義</t>
+    <t>女性主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B6%E6%AC%8A</t>
   </si>
   <si>
-    <t>父權</t>
+    <t>父权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E8%A7%92%E8%89%B2</t>
   </si>
   <si>
-    <t>性別角色</t>
+    <t>性别角色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%88%E9%87%8C%E5%BC%97%E6%96%AF%E4%BA%8B%E4%BB%B6</t>
@@ -809,19 +806,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E9%81%94%E7%88%BE%E6%96%87%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會達爾文主義</t>
+    <t>社会达尔文主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%A9%E8%80%85%E7%94%9F%E5%AD%98</t>
   </si>
   <si>
-    <t>適者生存</t>
+    <t>适者生存</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>文化保守主義</t>
+    <t>文化保守主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E6%96%87%E5%8C%96</t>
@@ -833,13 +830,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>中華文化</t>
+    <t>中华文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>台灣文化</t>
+    <t>台湾文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E8%A1%A1</t>
@@ -851,7 +848,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6_(%E6%AD%90%E6%B4%B2)</t>
   </si>
   <si>
-    <t>封建制度 (歐洲)</t>
+    <t>封建制度 (欧洲)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E6%B2%BB</t>
@@ -863,19 +860,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E7%9B%9F_(%E6%BE%B3%E6%B4%B2)</t>
   </si>
   <si>
-    <t>聯盟 (澳洲)</t>
+    <t>联盟 (澳洲)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%B7%A5%E9%BB%A8</t>
   </si>
   <si>
-    <t>澳洲工黨</t>
+    <t>澳洲工党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%88%B6</t>
@@ -887,7 +884,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>羅馬天主教會</t>
+    <t>罗马天主教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E9%9F%B3%E6%B4%BE</t>
@@ -899,55 +896,55 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>福利國家</t>
+    <t>福利国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E5%AD%9F%E5%B8%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>羅伯特·孟席斯</t>
+    <t>罗伯特·孟席斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%B1%E5%92%8C%E9%BB%A8</t>
   </si>
   <si>
-    <t>美國共和黨</t>
+    <t>美国共和党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E4%BF%9D%E5%AE%88%E9%BB%A8</t>
   </si>
   <si>
-    <t>英國保守黨</t>
+    <t>英国保守党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%B4%E5%A5%91%E7%88%BE%E5%A4%AB%E4%BA%BA</t>
   </si>
   <si>
-    <t>柴契爾夫人</t>
+    <t>柴契尔夫人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E9%9C%8D%E8%8F%AF%E5%BE%B7</t>
   </si>
   <si>
-    <t>約翰·霍華德</t>
+    <t>约翰·霍华德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E8%87%AA%E7%94%B1%E9%BB%A8</t>
   </si>
   <si>
-    <t>澳洲自由黨</t>
+    <t>澳洲自由党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E6%81%A9%E6%96%AF%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>凱恩斯主義</t>
+    <t>凯恩斯主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%80%A7%E6%88%80%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>同性戀權利</t>
+    <t>同性恋权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E8%8C%A8%E7%93%A6%E7%BA%B3%E6%B0%91%E4%B8%BB%E5%85%9A</t>
@@ -971,7 +968,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E8%87%AA%E7%94%B1%E5%BA%A6%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>經濟自由度指數</t>
+    <t>经济自由度指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%A1%E9%87%8C%E8%A5%BF%E6%96%AF</t>
@@ -983,7 +980,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>基督教民主主義</t>
+    <t>基督教民主主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E7%A7%91%E9%BD%90</t>
@@ -1019,31 +1016,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E9%81%94%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>蓋達組織</t>
+    <t>盖达组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E9%99%A3%E7%B7%9A_(%E6%B3%95%E5%9C%8B)</t>
   </si>
   <si>
-    <t>民族陣線 (法國)</t>
+    <t>民族阵线 (法国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%BF%97%E5%AD%B8</t>
   </si>
   <si>
-    <t>民俗學</t>
+    <t>民俗学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐盟</t>
+    <t>欧盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際組織</t>
+    <t>国际组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E5%88%91</t>
@@ -1055,7 +1052,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E4%BA%BA%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>屬人主義</t>
+    <t>属人主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%9D%9E</t>
@@ -1079,13 +1076,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E5%9F%BA%E7%9D%A3%E6%95%99%E6%B0%91%E4%B8%BB%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>德國基督教民主聯盟</t>
+    <t>德国基督教民主联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E8%87%AA%E7%94%B1%E6%B0%91%E4%B8%BB%E5%85%9A</t>
@@ -1103,7 +1100,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由保守主義</t>
+    <t>自由保守主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%BE%B7</t>
@@ -1115,19 +1112,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>聯合政府</t>
+    <t>联合政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B3%E7%BF%BC%E6%B0%91%E7%B2%B9%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>右翼民粹主義</t>
+    <t>右翼民粹主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E5%8F%A6%E9%A1%9E%E9%81%B8%E6%93%87</t>
   </si>
   <si>
-    <t>德國另類選擇</t>
+    <t>德国另类选择</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2017%E5%B9%B4%E5%BE%B7%E5%9B%BD%E8%81%94%E9%82%A6%E8%AE%AE%E9%99%A2%E9%80%89%E4%B8%BE</t>
@@ -1139,19 +1136,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E8%81%AF%E9%82%A6%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>德國聯邦議院</t>
+    <t>德国联邦议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E9%BB%A8</t>
   </si>
   <si>
-    <t>納粹黨</t>
+    <t>纳粹党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>國家社會主義</t>
+    <t>国家社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B2%9B%E7%8B%AC%E7%AB%8B%E5%85%9A</t>
@@ -1163,7 +1160,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>冰島</t>
+    <t>冰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B2%9B%E5%9B%BD%E4%BC%9A</t>
@@ -1181,7 +1178,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E4%BA%BA%E6%B0%91%E9%BB%A8</t>
   </si>
   <si>
-    <t>印度人民黨</t>
+    <t>印度人民党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%9B%BD%E5%A4%A7%E5%85%9A</t>
@@ -1193,7 +1190,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E4%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>世俗主義</t>
+    <t>世俗主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97</t>
@@ -1211,19 +1208,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%BD%95%E9%BB%98%E5%BE%B7%C2%B7%E7%A6%AE%E8%96%A9%C2%B7%E5%B7%B4%E5%88%97%E7%B6%AD</t>
   </si>
   <si>
-    <t>穆罕默德·禮薩·巴列維</t>
+    <t>穆罕默德·礼萨·巴列维</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E4%BA%9E%E5%9C%96%E6%8B%89</t>
   </si>
   <si>
-    <t>阿亞圖拉</t>
+    <t>阿亚图拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E4%BC%8A%E6%96%AF%E8%98%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>伊朗伊斯蘭革命</t>
+    <t>伊朗伊斯兰革命</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Executives_of_Construction_Party</t>
@@ -1241,7 +1238,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%BA%AB%E5%BE%B7%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>利庫德集團</t>
+    <t>利库德集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
@@ -1253,7 +1250,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E5%B7%A5%E9%BB%A8</t>
   </si>
   <si>
-    <t>以色列工黨</t>
+    <t>以色列工党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E9%9B%85%E6%98%8E%C2%B7%E5%86%85%E5%A1%94%E5%B0%BC%E4%BA%9A%E8%83%A1</t>
@@ -1265,19 +1262,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A2%9E%E5%80%BC%E7%A8%85</t>
   </si>
   <si>
-    <t>增值稅</t>
+    <t>增值税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E7%A8%85</t>
   </si>
   <si>
-    <t>關稅</t>
+    <t>关税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E8%88%AA%E7%A9%BA</t>
@@ -1301,7 +1298,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B7%B9%E6%B4%BE</t>
   </si>
   <si>
-    <t>鷹派</t>
+    <t>鹰派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6</t>
@@ -1313,19 +1310,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E4%BA%BA</t>
   </si>
   <si>
-    <t>猶太人</t>
+    <t>犹太人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%97%A6%E6%B2%B3%E8%A5%BF%E5%B2%B8</t>
   </si>
   <si>
-    <t>約旦河西岸</t>
+    <t>约旦河西岸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E8%96%A9%E8%B5%B0%E5%BB%8A</t>
   </si>
   <si>
-    <t>加薩走廊</t>
+    <t>加萨走廊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E7%BA%B3%E8%B5%AB%E5%A7%86%C2%B7%E8%B4%9D%E4%BA%AC</t>
@@ -1337,67 +1334,67 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>埃及總統</t>
+    <t>埃及总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%BD%95%E9%BB%98%E5%BE%B7%C2%B7%E5%AE%89%E7%93%A6%E7%88%BE%C2%B7%E8%96%A9%E9%81%94%E7%89%B9</t>
   </si>
   <si>
-    <t>穆罕默德·安瓦爾·薩達特</t>
+    <t>穆罕默德·安瓦尔·萨达特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%E7%87%9F%E5%8D%94%E8%AD%B0</t>
   </si>
   <si>
-    <t>大衛營協議</t>
+    <t>大卫营协议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AD%E6%97%A5%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>六日戰爭</t>
+    <t>六日战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%88%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>西奈半島</t>
+    <t>西奈半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波斯灣戰爭</t>
+    <t>波斯湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%8B%99%E5%8D%BF</t>
   </si>
   <si>
-    <t>美國國務卿</t>
+    <t>美国国务卿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E8%B2%9D%E5%85%8B</t>
   </si>
   <si>
-    <t>詹姆斯·貝克</t>
+    <t>詹姆斯·贝克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E9%99%B8%E5%8D%94%E8%AD%B0</t>
   </si>
   <si>
-    <t>奧斯陸協議</t>
+    <t>奥斯陆协议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E9%87%8C%E7%88%BE%C2%B7%E5%A4%8F%E9%9A%86</t>
   </si>
   <si>
-    <t>艾里爾·夏隆</t>
+    <t>艾里尔·夏隆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%8B%E9%9B%BB%E5%8F%B0</t>
   </si>
   <si>
-    <t>地下電台</t>
+    <t>地下电台</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Arutz_7</t>
@@ -1409,7 +1406,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E7%8F%AD%C2%B7%E7%B6%AD%E5%85%8B%E5%A4%9A</t>
   </si>
   <si>
-    <t>奧班·維克多</t>
+    <t>奥班·维克多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E5%B9%B4%E6%B0%91%E4%B8%BB%E4%B8%BB%E4%B9%89%E8%80%85%E8%81%94%E7%9B%9F</t>
@@ -1427,13 +1424,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%88%BE%E7%B6%AD%E5%A5%A7%C2%B7%E8%B2%9D%E7%9B%A7%E6%96%AF%E7%A7%91%E5%B0%BC</t>
   </si>
   <si>
-    <t>西爾維奧·貝盧斯科尼</t>
+    <t>西尔维奥·贝卢斯科尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E5%8A%9B%E9%87%8F%E9%BB%A8</t>
   </si>
   <si>
-    <t>意大利力量黨</t>
+    <t>意大利力量党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%8F%B3%E7%BF%BC%E5%9B%A2%E4%BD%93</t>
@@ -1445,43 +1442,43 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E6%97%A5%E6%9C%AC)</t>
   </si>
   <si>
-    <t>自由民主黨 (日本)</t>
+    <t>自由民主党 (日本)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%97%A5%E5%AE%89%E4%BF%9D%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>美日安保條約</t>
+    <t>美日安保条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>日本經濟</t>
+    <t>日本经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%9C%E8%B2%BC</t>
   </si>
   <si>
-    <t>補貼</t>
+    <t>补贴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%80%8D%E6%99%89%E4%B8%89</t>
   </si>
   <si>
-    <t>安倍晉三</t>
+    <t>安倍晋三</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%80%8D%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>安倍經濟學</t>
+    <t>安倍经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%9C%8B%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>日本國憲法</t>
+    <t>日本国宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E4%BC%A6%C2%B7%E7%BA%A6%E7%BF%B0%E9%80%8A-%E7%91%9F%E5%88%A9%E5%A4%AB</t>
@@ -1493,7 +1490,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新自由主義</t>
+    <t>新自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E5%85%B0%E5%9B%BD%E5%AE%B6%E5%85%9A</t>
@@ -1505,13 +1502,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>紐西蘭</t>
+    <t>纽西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A6%8F%E5%88%A9</t>
   </si>
   <si>
-    <t>社會福利</t>
+    <t>社会福利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -1523,19 +1520,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD%E5%84%AA%E5%85%88%E9%BB%A8</t>
   </si>
   <si>
-    <t>紐西蘭優先黨</t>
+    <t>纽西兰优先党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>紐西蘭國會</t>
+    <t>纽西兰国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>種族主義</t>
+    <t>种族主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%92%E5%A4%96</t>
@@ -1553,13 +1550,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%B0%91%E4%B8%BB%E4%BA%BA%E6%B0%91%E9%BB%A8</t>
   </si>
   <si>
-    <t>自由民主人民黨</t>
+    <t>自由民主人民党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>保守自由主義</t>
+    <t>保守自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%BA%BB</t>
@@ -1571,7 +1568,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E6%B0%91%E4%B8%BB%E5%91%BC%E7%B1%B2</t>
   </si>
   <si>
-    <t>基督教民主呼籲</t>
+    <t>基督教民主呼吁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB66</t>
@@ -1583,7 +1580,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>基督教聯盟</t>
+    <t>基督教联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E8%87%AA%E7%94%B1%E5%85%9A</t>
@@ -1595,7 +1592,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99</t>
   </si>
   <si>
-    <t>伊斯蘭教</t>
+    <t>伊斯兰教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E7%9C%9F%E5%AF%BA</t>
@@ -1607,13 +1604,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%85%83%E6%96%87%E5%8C%96%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>多元文化主義</t>
+    <t>多元文化主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E8%91%A1%E8%90%84%E7%89%99)</t>
   </si>
   <si>
-    <t>社會民主黨 (葡萄牙)</t>
+    <t>社会民主党 (葡萄牙)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%92%8C%E7%A4%BE%E4%BC%9A%E4%B8%AD%E5%BF%83%E5%85%9A-%E4%BA%BA%E6%B0%91%E5%85%9A</t>
@@ -1631,43 +1628,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E6%87%B7%E7%96%91%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>歐洲懷疑主義</t>
+    <t>欧洲怀疑主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>天主教會</t>
+    <t>天主教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E9%BB%A8_(%E8%91%A1%E8%90%84%E7%89%99)</t>
   </si>
   <si>
-    <t>社會黨 (葡萄牙)</t>
+    <t>社会党 (葡萄牙)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>伊拉克戰爭</t>
+    <t>伊拉克战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2011%E5%B9%B4%E8%91%A1%E8%90%84%E7%89%99%E8%AD%B0%E6%9C%83%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>2011年葡萄牙議會選舉</t>
+    <t>2011年葡萄牙议会选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>瑞典聯盟</t>
+    <t>瑞典联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%92%8C%E9%BB%A8</t>
   </si>
   <si>
-    <t>溫和黨</t>
+    <t>温和党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E6%9C%89%E5%8C%96</t>
@@ -1691,13 +1688,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%85%83</t>
   </si>
   <si>
-    <t>歐元</t>
+    <t>欧元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%BA%BA%E6%B0%91%E9%BB%A8</t>
   </si>
   <si>
-    <t>歐洲人民黨</t>
+    <t>欧洲人民党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%B0%91%E4%B8%BB%E8%81%94%E7%9B%9F</t>
@@ -1709,7 +1706,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E6%B0%91%E4%B8%BB%E9%BB%A8</t>
   </si>
   <si>
-    <t>瑞典民主黨</t>
+    <t>瑞典民主党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%87%E5%A4%96</t>
@@ -1721,13 +1718,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%B4%8D%E7%B2%B9</t>
   </si>
   <si>
-    <t>新納粹</t>
+    <t>新纳粹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E4%BA%BA%E6%B0%91%E9%BB%A8</t>
   </si>
   <si>
-    <t>西班牙人民黨</t>
+    <t>西班牙人民党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E6%9C%97%E5%93%A5</t>
@@ -1739,13 +1736,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E6%A7%8D%E9%BB%A8</t>
   </si>
   <si>
-    <t>長槍黨</t>
+    <t>长枪党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%B7%A5%E4%BA%BA%E7%A4%BE%E6%9C%83%E9%BB%A8</t>
   </si>
   <si>
-    <t>西班牙工人社會黨</t>
+    <t>西班牙工人社会党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E9%9C%8D%E4%BC%8A</t>
@@ -1775,7 +1772,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E9%9F%93%E5%9C%8B%E9%BB%A8</t>
   </si>
   <si>
-    <t>自由韓國黨</t>
+    <t>自由韩国党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%90%8C%E6%B0%91%E4%B8%BB%E5%85%9A</t>
@@ -1787,25 +1784,25 @@
     <t>https://zh.wikipedia.org/wiki/20%E5%9C%8B%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>20國集團</t>
+    <t>20国集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
   </si>
   <si>
-    <t>國內生產總值</t>
+    <t>国内生产总值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC%E5%88%97%E8%A1%A8_(%E5%9C%8B%E9%9A%9B%E5%8C%AF%E7%8E%87)</t>
   </si>
   <si>
-    <t>各國國內生產總值列表 (國際匯率)</t>
+    <t>各国国内生产总值列表 (国际汇率)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%B1%9F%E5%A5%87%E8%B9%9F</t>
   </si>
   <si>
-    <t>漢江奇蹟</t>
+    <t>汉江奇蹟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E5%B1%95%E4%B8%AD%E5%9B%BD%E5%AE%B6</t>
@@ -1817,19 +1814,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%9C%8B%E6%B0%91%E9%BB%A8</t>
   </si>
   <si>
-    <t>中國國民黨</t>
+    <t>中国国民党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%AB%E4%B8%AD%E5%B1%B1</t>
   </si>
   <si>
-    <t>孫中山</t>
+    <t>孙中山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%94%A3%E4%BB%8B%E7%9F%B3</t>
   </si>
   <si>
-    <t>蔣介石</t>
+    <t>蒋介石</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BC%90</t>
@@ -1847,43 +1844,43 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%AF%A7%E5%BC%8F%E6%94%BF%E9%BB%A8</t>
   </si>
   <si>
-    <t>列寧式政黨</t>
+    <t>列宁式政党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%A8%E5%9C%8B%E9%AB%94%E5%88%B6</t>
   </si>
   <si>
-    <t>黨國體制</t>
+    <t>党国体制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>台灣地區</t>
+    <t>台湾地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E5%A4%A7%E5%BB%BA%E8%A8%AD</t>
   </si>
   <si>
-    <t>十大建設</t>
+    <t>十大建设</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%A5%87%E8%B9%9F</t>
   </si>
   <si>
-    <t>台灣奇蹟</t>
+    <t>台湾奇蹟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%B0%91%E6%97%8F%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>中國民族主義</t>
+    <t>中国民族主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%85%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>反共主義</t>
+    <t>反共主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -1895,19 +1892,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>中國大陸</t>
+    <t>中国大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E7%8D%A8%E7%AB%8B</t>
   </si>
   <si>
-    <t>台灣獨立</t>
+    <t>台湾独立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%80%B2%E6%AD%A5%E9%BB%A8</t>
   </si>
   <si>
-    <t>民主進步黨</t>
+    <t>民主进步党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E4%B8%89%E5%8F%B0</t>
@@ -1919,19 +1916,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%9C%98%E9%AB%94</t>
   </si>
   <si>
-    <t>社會團體</t>
+    <t>社会团体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%BC%81%E6%A5%AD</t>
   </si>
   <si>
-    <t>社會企業</t>
+    <t>社会企业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E7%99%BB%E8%BC%9D</t>
   </si>
   <si>
-    <t>李登輝</t>
+    <t>李登辉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BA%AB%E4%BB%BD%E8%AE%A4%E5%90%8C</t>
@@ -1943,43 +1940,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>民主黨 (美國)</t>
+    <t>民主党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%85%B1%E7%94%A2%E9%BB%A8</t>
   </si>
   <si>
-    <t>中國共產黨</t>
+    <t>中国共产党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%B9%E9%9D%A9%E9%96%8B%E6%94%BE</t>
   </si>
   <si>
-    <t>改革開放</t>
+    <t>改革开放</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E7%89%B9%E8%89%B2%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>中國特色社會主義</t>
+    <t>中国特色社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9%E5%B8%82%E5%A0%B4%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>社會主義市場經濟</t>
+    <t>社会主义市场经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E6%94%BF%E9%BB%A8</t>
   </si>
   <si>
-    <t>執政黨</t>
+    <t>执政党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%AE%96%E6%B0%91%E5%9C%B0%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>香港殖民地時期</t>
+    <t>香港殖民地时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%AD%E5%AE%9A%E5%BA%B7</t>
@@ -1991,19 +1988,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E8%81%AF</t>
   </si>
   <si>
-    <t>啟聯</t>
+    <t>启联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E8%87%AA%E7%94%B1%E9%BB%A8</t>
   </si>
   <si>
-    <t>香港自由黨</t>
+    <t>香港自由党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%BB%BA%E6%B8%AF%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>民主建港聯盟</t>
+    <t>民主建港联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%B0%91%E4%B8%BB%E5%90%8C%E7%9B%9F</t>
@@ -2015,7 +2012,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%9B%9E%E6%AD%B8</t>
   </si>
   <si>
-    <t>香港回歸</t>
+    <t>香港回归</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E5%88%B6%E6%B4%BE</t>
@@ -2027,13 +2024,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%89%B9%E5%88%A5%E8%A1%8C%E6%94%BF%E5%8D%80%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>香港特別行政區政府</t>
+    <t>香港特别行政区政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E6%94%BF%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>執政聯盟</t>
+    <t>执政联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E6%B0%91%E4%B8%BB%E6%B4%BE</t>
@@ -2045,115 +2042,115 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%B0%8D%E6%B4%BE</t>
   </si>
   <si>
-    <t>反對派</t>
+    <t>反对派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%BB%BA%E6%B8%AF%E5%8D%94%E9%80%B2%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>民主建港協進聯盟</t>
+    <t>民主建港协进联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E9%BB%A8_(%E9%A6%99%E6%B8%AF)</t>
   </si>
   <si>
-    <t>自由黨 (香港)</t>
+    <t>自由党 (香港)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B0%91%E9%BB%A8_(%E9%A6%99%E6%B8%AF)</t>
   </si>
   <si>
-    <t>新民黨 (香港)</t>
+    <t>新民党 (香港)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%B6%93%E6%BF%9F%E6%B0%91%E7%94%9F%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>香港經濟民生聯盟</t>
+    <t>香港经济民生联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E8%A1%80%E5%85%AC%E6%B0%91</t>
   </si>
   <si>
-    <t>熱血公民</t>
+    <t>热血公民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%BE%A9%E8%88%88%E6%9C%83</t>
   </si>
   <si>
-    <t>香港復興會</t>
+    <t>香港复兴会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E5%9C%9F%E6%B0%91%E4%B8%BB%E5%89%8D%E7%B7%9A</t>
   </si>
   <si>
-    <t>本土民主前線</t>
+    <t>本土民主前线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BA%A4%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>社交媒體</t>
+    <t>社交媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%A2%83%E5%85%A7%E6%B0%B4%E8%B2%A8%E5%AE%A2%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>香港境內水貨客問題</t>
+    <t>香港境内水货客问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%80_(%E9%A6%99%E6%B8%AF)</t>
   </si>
   <si>
-    <t>北區 (香港)</t>
+    <t>北区 (香港)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%AF%E9%96%80%E5%8D%80</t>
   </si>
   <si>
-    <t>屯門區</t>
+    <t>屯门区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E6%9C%97%E5%8D%80</t>
   </si>
   <si>
-    <t>元朗區</t>
+    <t>元朗区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%96%B0%E5%B8%82%E9%8E%AE</t>
   </si>
   <si>
-    <t>香港新市鎮</t>
+    <t>香港新市镇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E6%AE%96%E6%B0%91%E5%9C%B0%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>澳門殖民地時期</t>
+    <t>澳门殖民地时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E9%BB%A8_(%E8%8B%B1%E5%9C%8B)</t>
   </si>
   <si>
-    <t>保守黨 (英國)</t>
+    <t>保守党 (英国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>民主社會主義</t>
+    <t>民主社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E8%8B%B1%E5%9C%8B%E5%A4%A7%E9%81%B8</t>
   </si>
   <si>
-    <t>2010年英國大選</t>
+    <t>2010年英国大选</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E8%8B%B1%E5%9C%8B)</t>
   </si>
   <si>
-    <t>自由民主黨 (英國)</t>
+    <t>自由民主党 (英国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%BB%B4%C2%B7%E5%8D%A1%E6%A2%85%E4%BC%A6</t>
@@ -2165,7 +2162,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E6%96%AF%E5%8B%B3%E7%88%B5</t>
   </si>
   <si>
-    <t>諾斯勳爵</t>
+    <t>诺斯勳爵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%A8%81%E5%BB%89%C2%B7%E7%9A%AE%E7%89%B9</t>
@@ -2177,67 +2174,67 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E8%B3%93%E5%A1%9E%C2%B7%E7%8F%80%E8%A5%BF%E7%93%A6%E7%88%BE</t>
   </si>
   <si>
-    <t>斯賓塞·珀西瓦爾</t>
+    <t>斯宾塞·珀西瓦尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%91%9F%C2%B7%E9%9F%8B%E7%88%BE%E6%96%AF%E5%88%A9%EF%BC%8C%E7%AC%AC%E4%B8%80%E4%BB%A3%E5%A8%81%E9%9D%88%E9%A0%93%E5%85%AC%E7%88%B5</t>
   </si>
   <si>
-    <t>阿瑟·韋爾斯利，第一代威靈頓公爵</t>
+    <t>阿瑟·韦尔斯利，第一代威灵顿公爵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E7%9A%AE%E7%88%BE</t>
   </si>
   <si>
-    <t>羅伯特·皮爾</t>
+    <t>罗伯特·皮尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E5%82%91%E6%98%8E%C2%B7%E8%BF%AA%E6%96%AF%E9%9B%B7%E5%88%A9</t>
   </si>
   <si>
-    <t>本傑明·迪斯雷利</t>
+    <t>本杰明·迪斯雷利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%91%9F%C2%B7%E8%B2%9D%E7%88%BE%E7%A6%8F</t>
   </si>
   <si>
-    <t>亞瑟·貝爾福</t>
+    <t>亚瑟·贝尔福</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%B1%E5%90%89%E7%88%BE</t>
   </si>
   <si>
-    <t>邱吉爾</t>
+    <t>邱吉尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E7%BE%8E%E5%80%AB</t>
   </si>
   <si>
-    <t>麥美倫</t>
+    <t>麦美伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E5%8D%93%E7%88%BE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>戴卓爾主義</t>
+    <t>戴卓尔主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%9D%A6%E5%88%A9%C2%B7%E9%AE%91%E5%BE%B7%E6%BA%AB</t>
   </si>
   <si>
-    <t>斯坦利·鮑德溫</t>
+    <t>斯坦利·鲍德温</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8F%AF%C2%B7%E5%B8%8C%E6%80%9D</t>
   </si>
   <si>
-    <t>愛德華·希思</t>
+    <t>爱德华·希思</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>英國文化</t>
+    <t>英国文化</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Peter_Tapsell_(British_politician)</t>
@@ -2255,19 +2252,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E7%A7%91%E5%A7%86%C2%B7%E9%87%8C%E5%A4%AB%E9%87%91%E5%BE%B7</t>
   </si>
   <si>
-    <t>馬爾科姆·里夫金德</t>
+    <t>马尔科姆·里夫金德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E7%B1%B3%E5%AE%89%C2%B7%E6%A0%BC%E6%9E%97</t>
   </si>
   <si>
-    <t>達米安·格林</t>
+    <t>达米安·格林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>公民社會</t>
+    <t>公民社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E7%BF%A0%E7%8F%8A</t>
@@ -2279,31 +2276,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E6%96%87%E9%81%94</t>
   </si>
   <si>
-    <t>夏文達</t>
+    <t>夏文达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AE%91%E9%87%8C%E6%96%AF%C2%B7%E7%B4%84%E7%BF%B0%E9%81%9C</t>
   </si>
   <si>
-    <t>鮑里斯·約翰遜</t>
+    <t>鲍里斯·约翰逊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E6%8E%A5%E7%A8%85</t>
   </si>
   <si>
-    <t>直接稅</t>
+    <t>直接税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E5%85%8B%C2%B7%E6%B3%A2%E8%92%82%E7%95%A5</t>
   </si>
   <si>
-    <t>邁克·波蒂略</t>
+    <t>迈克·波蒂略</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E5%BE%B7%E5%81%89</t>
   </si>
   <si>
-    <t>戴德偉</t>
+    <t>戴德伟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E6%B5%B7%E6%A0%BC</t>
@@ -2327,7 +2324,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>大西洋主義</t>
+    <t>大西洋主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%B8%8C%C2%B7%E5%93%88%E8%80%B6%E5%85%8B</t>
@@ -2345,13 +2342,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%9C%8B%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>英國國教會</t>
+    <t>英国国教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E4%B8%80%E5%88%B6</t>
   </si>
   <si>
-    <t>單一制</t>
+    <t>单一制</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Nadine_Dorries</t>
@@ -2363,7 +2360,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%AD%AF%C2%B7%E7%BE%85%E6%A3%AE%E6%88%B4%E7%88%BE</t>
   </si>
   <si>
-    <t>安德魯·羅森戴爾</t>
+    <t>安德鲁·罗森戴尔</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ann_Widdecombe</t>
@@ -2375,13 +2372,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8F%AF%C2%B7%E6%9D%8E</t>
   </si>
   <si>
-    <t>愛德華·李</t>
+    <t>爱德华·李</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>哲學家</t>
+    <t>哲学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%B8%83%E4%BB%80</t>
@@ -2399,7 +2396,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%85%8B%C2%B7%E9%8C%A2%E5%B0%BC</t>
   </si>
   <si>
-    <t>迪克·錢尼</t>
+    <t>迪克·钱尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E5%8D%A1%E6%A0%B9</t>
@@ -2429,37 +2426,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E6%B2%83%E5%85%8B%C2%B7%E5%B8%83%E5%B8%8C</t>
   </si>
   <si>
-    <t>喬治·沃克·布希</t>
+    <t>乔治·沃克·布希</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>海灣戰爭</t>
+    <t>海湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>阿富汗戰爭</t>
+    <t>阿富汗战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>美國憲法</t>
+    <t>美国宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>市場經濟</t>
+    <t>市场经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%B7%B4%E9%A6%AC%E5%81%A5%E4%BF%9D</t>
   </si>
   <si>
-    <t>歐巴馬健保</t>
+    <t>欧巴马健保</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E8%B4%B8%E6%98%93</t>
@@ -2489,7 +2486,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%B9%86%E7%88%BE%C2%B7P%C2%B7%E4%BA%A8%E5%BB%B7%E9%A0%93</t>
   </si>
   <si>
-    <t>塞繆爾·P·亨廷頓</t>
+    <t>塞缪尔·P·亨廷顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A4%E7%AB%8B%E4%B8%BB%E4%B9%89</t>
@@ -2507,7 +2504,7 @@
     <t>https://zh.wikipedia.org/wiki/1964%E5%B9%B4%E6%B0%91%E6%AC%8A%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>1964年民權法案</t>
+    <t>1964年民权法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7</t>
@@ -2519,7 +2516,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E6%95%B8%E6%97%8F%E8%A3%94</t>
   </si>
   <si>
-    <t>少數族裔</t>
+    <t>少数族裔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E5%B9%B3%E6%9D%83%E6%B3%95%E6%A1%88</t>
@@ -2543,13 +2540,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%B8%80%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
   </si>
   <si>
-    <t>美國憲法第一修正案</t>
+    <t>美国宪法第一修正案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%95%99</t>
   </si>
   <si>
-    <t>國教</t>
+    <t>国教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/LGBT%E6%9D%83%E5%88%A9</t>
@@ -2561,25 +2558,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國總統</t>
+    <t>美国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%C2%B7%E5%B7%9D%E6%99%AE</t>
   </si>
   <si>
-    <t>唐納·川普</t>
+    <t>唐纳·川普</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%92%82%E8%8A%AC%C2%B7%E7%8F%AD%E8%BE%B2</t>
   </si>
   <si>
-    <t>史蒂芬·班農</t>
+    <t>史蒂芬·班农</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E9%82%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>多邊主義</t>
+    <t>多边主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/TPP</t>
@@ -2603,7 +2600,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>伊斯蘭恐怖主義</t>
+    <t>伊斯兰恐怖主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A6%E7%B1%BB%E5%8F%B3%E7%BF%BC</t>
@@ -2621,19 +2618,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E8%89%B2</t>
   </si>
   <si>
-    <t>藍色</t>
+    <t>蓝色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AD%98%E5%BD%A2%E6%85%8B</t>
   </si>
   <si>
-    <t>意識形態</t>
+    <t>意识形态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E8%A7%80%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>客觀主義</t>
+    <t>客观主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A6%E7%B1%BB%E5%8F%B3%E6%B4%BE</t>
@@ -2645,7 +2642,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>納粹德國</t>
+    <t>纳粹德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%81%93%E5%A4%AB%C2%B7%E5%B8%8C%E7%89%B9%E5%8B%92</t>
@@ -2657,13 +2654,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E8%A6%AA%E5%85%B1%E4%BA%BA%E5%A3%AB</t>
   </si>
   <si>
-    <t>香港親共人士</t>
+    <t>香港亲共人士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E8%81%AF%E6%9C%83</t>
   </si>
   <si>
-    <t>工聯會</t>
+    <t>工联会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/University_of_Chicago_Press</t>
@@ -2693,19 +2690,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%99%82%E5%A0%B1%E4%B8%AD%E6%96%87%E7%B6%B2</t>
   </si>
   <si>
-    <t>紐約時報中文網</t>
+    <t>纽约时报中文网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -5454,7 +5451,7 @@
         <v>159</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -5480,10 +5477,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>160</v>
+      </c>
+      <c r="F84" t="s">
         <v>161</v>
-      </c>
-      <c r="F84" t="s">
-        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -5509,10 +5506,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>162</v>
+      </c>
+      <c r="F85" t="s">
         <v>163</v>
-      </c>
-      <c r="F85" t="s">
-        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -5538,10 +5535,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>164</v>
+      </c>
+      <c r="F86" t="s">
         <v>165</v>
-      </c>
-      <c r="F86" t="s">
-        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5596,10 +5593,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>166</v>
+      </c>
+      <c r="F88" t="s">
         <v>167</v>
-      </c>
-      <c r="F88" t="s">
-        <v>168</v>
       </c>
       <c r="G88" t="n">
         <v>17</v>
@@ -5625,10 +5622,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>168</v>
+      </c>
+      <c r="F89" t="s">
         <v>169</v>
-      </c>
-      <c r="F89" t="s">
-        <v>170</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5654,10 +5651,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>170</v>
+      </c>
+      <c r="F90" t="s">
         <v>171</v>
-      </c>
-      <c r="F90" t="s">
-        <v>172</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -5683,10 +5680,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>172</v>
+      </c>
+      <c r="F91" t="s">
         <v>173</v>
-      </c>
-      <c r="F91" t="s">
-        <v>174</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5712,10 +5709,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>174</v>
+      </c>
+      <c r="F92" t="s">
         <v>175</v>
-      </c>
-      <c r="F92" t="s">
-        <v>176</v>
       </c>
       <c r="G92" t="n">
         <v>3</v>
@@ -5741,10 +5738,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>176</v>
+      </c>
+      <c r="F93" t="s">
         <v>177</v>
-      </c>
-      <c r="F93" t="s">
-        <v>178</v>
       </c>
       <c r="G93" t="n">
         <v>3</v>
@@ -5770,10 +5767,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>178</v>
+      </c>
+      <c r="F94" t="s">
         <v>179</v>
-      </c>
-      <c r="F94" t="s">
-        <v>180</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5799,10 +5796,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>180</v>
+      </c>
+      <c r="F95" t="s">
         <v>181</v>
-      </c>
-      <c r="F95" t="s">
-        <v>182</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5828,10 +5825,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>182</v>
+      </c>
+      <c r="F96" t="s">
         <v>183</v>
-      </c>
-      <c r="F96" t="s">
-        <v>184</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5857,10 +5854,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>184</v>
+      </c>
+      <c r="F97" t="s">
         <v>185</v>
-      </c>
-      <c r="F97" t="s">
-        <v>186</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5886,10 +5883,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>186</v>
+      </c>
+      <c r="F98" t="s">
         <v>187</v>
-      </c>
-      <c r="F98" t="s">
-        <v>188</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5915,10 +5912,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>188</v>
+      </c>
+      <c r="F99" t="s">
         <v>189</v>
-      </c>
-      <c r="F99" t="s">
-        <v>190</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5944,10 +5941,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>190</v>
+      </c>
+      <c r="F100" t="s">
         <v>191</v>
-      </c>
-      <c r="F100" t="s">
-        <v>192</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5973,10 +5970,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>192</v>
+      </c>
+      <c r="F101" t="s">
         <v>193</v>
-      </c>
-      <c r="F101" t="s">
-        <v>194</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -6031,10 +6028,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>194</v>
+      </c>
+      <c r="F103" t="s">
         <v>195</v>
-      </c>
-      <c r="F103" t="s">
-        <v>196</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -6060,10 +6057,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>196</v>
+      </c>
+      <c r="F104" t="s">
         <v>197</v>
-      </c>
-      <c r="F104" t="s">
-        <v>198</v>
       </c>
       <c r="G104" t="n">
         <v>6</v>
@@ -6089,10 +6086,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>198</v>
+      </c>
+      <c r="F105" t="s">
         <v>199</v>
-      </c>
-      <c r="F105" t="s">
-        <v>200</v>
       </c>
       <c r="G105" t="n">
         <v>3</v>
@@ -6118,10 +6115,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>200</v>
+      </c>
+      <c r="F106" t="s">
         <v>201</v>
-      </c>
-      <c r="F106" t="s">
-        <v>202</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -6147,10 +6144,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>202</v>
+      </c>
+      <c r="F107" t="s">
         <v>203</v>
-      </c>
-      <c r="F107" t="s">
-        <v>204</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -6176,10 +6173,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>204</v>
+      </c>
+      <c r="F108" t="s">
         <v>205</v>
-      </c>
-      <c r="F108" t="s">
-        <v>206</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -6205,10 +6202,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>206</v>
+      </c>
+      <c r="F109" t="s">
         <v>207</v>
-      </c>
-      <c r="F109" t="s">
-        <v>208</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -6234,10 +6231,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>208</v>
+      </c>
+      <c r="F110" t="s">
         <v>209</v>
-      </c>
-      <c r="F110" t="s">
-        <v>210</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -6263,10 +6260,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>210</v>
+      </c>
+      <c r="F111" t="s">
         <v>211</v>
-      </c>
-      <c r="F111" t="s">
-        <v>212</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6292,10 +6289,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>212</v>
+      </c>
+      <c r="F112" t="s">
         <v>213</v>
-      </c>
-      <c r="F112" t="s">
-        <v>214</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6321,10 +6318,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>214</v>
+      </c>
+      <c r="F113" t="s">
         <v>215</v>
-      </c>
-      <c r="F113" t="s">
-        <v>216</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -6350,10 +6347,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>216</v>
+      </c>
+      <c r="F114" t="s">
         <v>217</v>
-      </c>
-      <c r="F114" t="s">
-        <v>218</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6379,10 +6376,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>218</v>
+      </c>
+      <c r="F115" t="s">
         <v>219</v>
-      </c>
-      <c r="F115" t="s">
-        <v>220</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -6408,10 +6405,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>220</v>
+      </c>
+      <c r="F116" t="s">
         <v>221</v>
-      </c>
-      <c r="F116" t="s">
-        <v>222</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6437,10 +6434,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>222</v>
+      </c>
+      <c r="F117" t="s">
         <v>223</v>
-      </c>
-      <c r="F117" t="s">
-        <v>224</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6466,10 +6463,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>224</v>
+      </c>
+      <c r="F118" t="s">
         <v>225</v>
-      </c>
-      <c r="F118" t="s">
-        <v>226</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6495,10 +6492,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>226</v>
+      </c>
+      <c r="F119" t="s">
         <v>227</v>
-      </c>
-      <c r="F119" t="s">
-        <v>228</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6524,10 +6521,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>228</v>
+      </c>
+      <c r="F120" t="s">
         <v>229</v>
-      </c>
-      <c r="F120" t="s">
-        <v>230</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6553,10 +6550,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>230</v>
+      </c>
+      <c r="F121" t="s">
         <v>231</v>
-      </c>
-      <c r="F121" t="s">
-        <v>232</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -6582,10 +6579,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>232</v>
+      </c>
+      <c r="F122" t="s">
         <v>233</v>
-      </c>
-      <c r="F122" t="s">
-        <v>234</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6640,10 +6637,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>234</v>
+      </c>
+      <c r="F124" t="s">
         <v>235</v>
-      </c>
-      <c r="F124" t="s">
-        <v>236</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6669,10 +6666,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>236</v>
+      </c>
+      <c r="F125" t="s">
         <v>237</v>
-      </c>
-      <c r="F125" t="s">
-        <v>238</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6698,10 +6695,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>238</v>
+      </c>
+      <c r="F126" t="s">
         <v>239</v>
-      </c>
-      <c r="F126" t="s">
-        <v>240</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6727,10 +6724,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>240</v>
+      </c>
+      <c r="F127" t="s">
         <v>241</v>
-      </c>
-      <c r="F127" t="s">
-        <v>242</v>
       </c>
       <c r="G127" t="n">
         <v>3</v>
@@ -6756,10 +6753,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>242</v>
+      </c>
+      <c r="F128" t="s">
         <v>243</v>
-      </c>
-      <c r="F128" t="s">
-        <v>244</v>
       </c>
       <c r="G128" t="n">
         <v>23</v>
@@ -6785,10 +6782,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>244</v>
+      </c>
+      <c r="F129" t="s">
         <v>245</v>
-      </c>
-      <c r="F129" t="s">
-        <v>246</v>
       </c>
       <c r="G129" t="n">
         <v>7</v>
@@ -6814,10 +6811,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>246</v>
+      </c>
+      <c r="F130" t="s">
         <v>247</v>
-      </c>
-      <c r="F130" t="s">
-        <v>248</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -6843,10 +6840,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>248</v>
+      </c>
+      <c r="F131" t="s">
         <v>249</v>
-      </c>
-      <c r="F131" t="s">
-        <v>250</v>
       </c>
       <c r="G131" t="n">
         <v>3</v>
@@ -6872,10 +6869,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>250</v>
+      </c>
+      <c r="F132" t="s">
         <v>251</v>
-      </c>
-      <c r="F132" t="s">
-        <v>252</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6901,10 +6898,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>252</v>
+      </c>
+      <c r="F133" t="s">
         <v>253</v>
-      </c>
-      <c r="F133" t="s">
-        <v>254</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6930,10 +6927,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>254</v>
+      </c>
+      <c r="F134" t="s">
         <v>255</v>
-      </c>
-      <c r="F134" t="s">
-        <v>256</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6959,10 +6956,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>256</v>
+      </c>
+      <c r="F135" t="s">
         <v>257</v>
-      </c>
-      <c r="F135" t="s">
-        <v>258</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6988,10 +6985,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>258</v>
+      </c>
+      <c r="F136" t="s">
         <v>259</v>
-      </c>
-      <c r="F136" t="s">
-        <v>260</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -7017,10 +7014,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>260</v>
+      </c>
+      <c r="F137" t="s">
         <v>261</v>
-      </c>
-      <c r="F137" t="s">
-        <v>262</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -7046,10 +7043,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>262</v>
+      </c>
+      <c r="F138" t="s">
         <v>263</v>
-      </c>
-      <c r="F138" t="s">
-        <v>264</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -7075,10 +7072,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>264</v>
+      </c>
+      <c r="F139" t="s">
         <v>265</v>
-      </c>
-      <c r="F139" t="s">
-        <v>266</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -7104,10 +7101,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>266</v>
+      </c>
+      <c r="F140" t="s">
         <v>267</v>
-      </c>
-      <c r="F140" t="s">
-        <v>268</v>
       </c>
       <c r="G140" t="n">
         <v>4</v>
@@ -7133,10 +7130,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>268</v>
+      </c>
+      <c r="F141" t="s">
         <v>269</v>
-      </c>
-      <c r="F141" t="s">
-        <v>270</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -7162,10 +7159,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>270</v>
+      </c>
+      <c r="F142" t="s">
         <v>271</v>
-      </c>
-      <c r="F142" t="s">
-        <v>272</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -7191,10 +7188,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>272</v>
+      </c>
+      <c r="F143" t="s">
         <v>273</v>
-      </c>
-      <c r="F143" t="s">
-        <v>274</v>
       </c>
       <c r="G143" t="n">
         <v>12</v>
@@ -7220,10 +7217,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>274</v>
+      </c>
+      <c r="F144" t="s">
         <v>275</v>
-      </c>
-      <c r="F144" t="s">
-        <v>276</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7249,10 +7246,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>276</v>
+      </c>
+      <c r="F145" t="s">
         <v>277</v>
-      </c>
-      <c r="F145" t="s">
-        <v>278</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7278,10 +7275,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>278</v>
+      </c>
+      <c r="F146" t="s">
         <v>279</v>
-      </c>
-      <c r="F146" t="s">
-        <v>280</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7307,10 +7304,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>280</v>
+      </c>
+      <c r="F147" t="s">
         <v>281</v>
-      </c>
-      <c r="F147" t="s">
-        <v>282</v>
       </c>
       <c r="G147" t="n">
         <v>3</v>
@@ -7336,10 +7333,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>282</v>
+      </c>
+      <c r="F148" t="s">
         <v>283</v>
-      </c>
-      <c r="F148" t="s">
-        <v>284</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7394,10 +7391,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>284</v>
+      </c>
+      <c r="F150" t="s">
         <v>285</v>
-      </c>
-      <c r="F150" t="s">
-        <v>286</v>
       </c>
       <c r="G150" t="n">
         <v>26</v>
@@ -7423,10 +7420,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>286</v>
+      </c>
+      <c r="F151" t="s">
         <v>287</v>
-      </c>
-      <c r="F151" t="s">
-        <v>288</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7452,10 +7449,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>288</v>
+      </c>
+      <c r="F152" t="s">
         <v>289</v>
-      </c>
-      <c r="F152" t="s">
-        <v>290</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -7481,10 +7478,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>290</v>
+      </c>
+      <c r="F153" t="s">
         <v>291</v>
-      </c>
-      <c r="F153" t="s">
-        <v>292</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -7510,10 +7507,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>292</v>
+      </c>
+      <c r="F154" t="s">
         <v>293</v>
-      </c>
-      <c r="F154" t="s">
-        <v>294</v>
       </c>
       <c r="G154" t="n">
         <v>4</v>
@@ -7539,10 +7536,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>294</v>
+      </c>
+      <c r="F155" t="s">
         <v>295</v>
-      </c>
-      <c r="F155" t="s">
-        <v>296</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7568,10 +7565,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>296</v>
+      </c>
+      <c r="F156" t="s">
         <v>297</v>
-      </c>
-      <c r="F156" t="s">
-        <v>298</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -7597,10 +7594,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>298</v>
+      </c>
+      <c r="F157" t="s">
         <v>299</v>
-      </c>
-      <c r="F157" t="s">
-        <v>300</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7626,10 +7623,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>300</v>
+      </c>
+      <c r="F158" t="s">
         <v>301</v>
-      </c>
-      <c r="F158" t="s">
-        <v>302</v>
       </c>
       <c r="G158" t="n">
         <v>6</v>
@@ -7655,10 +7652,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>302</v>
+      </c>
+      <c r="F159" t="s">
         <v>303</v>
-      </c>
-      <c r="F159" t="s">
-        <v>304</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7684,10 +7681,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>304</v>
+      </c>
+      <c r="F160" t="s">
         <v>305</v>
-      </c>
-      <c r="F160" t="s">
-        <v>306</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -7713,10 +7710,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>306</v>
+      </c>
+      <c r="F161" t="s">
         <v>307</v>
-      </c>
-      <c r="F161" t="s">
-        <v>308</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7742,10 +7739,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>308</v>
+      </c>
+      <c r="F162" t="s">
         <v>309</v>
-      </c>
-      <c r="F162" t="s">
-        <v>310</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -7771,10 +7768,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>310</v>
+      </c>
+      <c r="F163" t="s">
         <v>311</v>
-      </c>
-      <c r="F163" t="s">
-        <v>312</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -7800,10 +7797,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>312</v>
+      </c>
+      <c r="F164" t="s">
         <v>313</v>
-      </c>
-      <c r="F164" t="s">
-        <v>314</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7829,10 +7826,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>314</v>
+      </c>
+      <c r="F165" t="s">
         <v>315</v>
-      </c>
-      <c r="F165" t="s">
-        <v>316</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7858,10 +7855,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>316</v>
+      </c>
+      <c r="F166" t="s">
         <v>317</v>
-      </c>
-      <c r="F166" t="s">
-        <v>318</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7887,10 +7884,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>318</v>
+      </c>
+      <c r="F167" t="s">
         <v>319</v>
-      </c>
-      <c r="F167" t="s">
-        <v>320</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7916,10 +7913,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>320</v>
+      </c>
+      <c r="F168" t="s">
         <v>321</v>
-      </c>
-      <c r="F168" t="s">
-        <v>322</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -7945,10 +7942,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>322</v>
+      </c>
+      <c r="F169" t="s">
         <v>323</v>
-      </c>
-      <c r="F169" t="s">
-        <v>324</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7974,10 +7971,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>324</v>
+      </c>
+      <c r="F170" t="s">
         <v>325</v>
-      </c>
-      <c r="F170" t="s">
-        <v>326</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8003,10 +8000,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>326</v>
+      </c>
+      <c r="F171" t="s">
         <v>327</v>
-      </c>
-      <c r="F171" t="s">
-        <v>328</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8032,10 +8029,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>328</v>
+      </c>
+      <c r="F172" t="s">
         <v>329</v>
-      </c>
-      <c r="F172" t="s">
-        <v>330</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8061,10 +8058,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>330</v>
+      </c>
+      <c r="F173" t="s">
         <v>331</v>
-      </c>
-      <c r="F173" t="s">
-        <v>332</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8090,10 +8087,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>332</v>
+      </c>
+      <c r="F174" t="s">
         <v>333</v>
-      </c>
-      <c r="F174" t="s">
-        <v>334</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8119,10 +8116,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>334</v>
+      </c>
+      <c r="F175" t="s">
         <v>335</v>
-      </c>
-      <c r="F175" t="s">
-        <v>336</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -8148,10 +8145,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>336</v>
+      </c>
+      <c r="F176" t="s">
         <v>337</v>
-      </c>
-      <c r="F176" t="s">
-        <v>338</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -8177,10 +8174,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>338</v>
+      </c>
+      <c r="F177" t="s">
         <v>339</v>
-      </c>
-      <c r="F177" t="s">
-        <v>340</v>
       </c>
       <c r="G177" t="n">
         <v>17</v>
@@ -8206,10 +8203,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>340</v>
+      </c>
+      <c r="F178" t="s">
         <v>341</v>
-      </c>
-      <c r="F178" t="s">
-        <v>342</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -8264,10 +8261,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>342</v>
+      </c>
+      <c r="F180" t="s">
         <v>343</v>
-      </c>
-      <c r="F180" t="s">
-        <v>344</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8293,10 +8290,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>344</v>
+      </c>
+      <c r="F181" t="s">
         <v>345</v>
-      </c>
-      <c r="F181" t="s">
-        <v>346</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8322,10 +8319,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>346</v>
+      </c>
+      <c r="F182" t="s">
         <v>347</v>
-      </c>
-      <c r="F182" t="s">
-        <v>348</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8351,10 +8348,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>348</v>
+      </c>
+      <c r="F183" t="s">
         <v>349</v>
-      </c>
-      <c r="F183" t="s">
-        <v>350</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8380,10 +8377,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>350</v>
+      </c>
+      <c r="F184" t="s">
         <v>351</v>
-      </c>
-      <c r="F184" t="s">
-        <v>352</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8409,10 +8406,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>352</v>
+      </c>
+      <c r="F185" t="s">
         <v>353</v>
-      </c>
-      <c r="F185" t="s">
-        <v>354</v>
       </c>
       <c r="G185" t="n">
         <v>11</v>
@@ -8438,10 +8435,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>354</v>
+      </c>
+      <c r="F186" t="s">
         <v>355</v>
-      </c>
-      <c r="F186" t="s">
-        <v>356</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8467,10 +8464,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>356</v>
+      </c>
+      <c r="F187" t="s">
         <v>357</v>
-      </c>
-      <c r="F187" t="s">
-        <v>358</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8496,10 +8493,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>358</v>
+      </c>
+      <c r="F188" t="s">
         <v>359</v>
-      </c>
-      <c r="F188" t="s">
-        <v>360</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8525,10 +8522,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>360</v>
+      </c>
+      <c r="F189" t="s">
         <v>361</v>
-      </c>
-      <c r="F189" t="s">
-        <v>362</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -8554,10 +8551,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>362</v>
+      </c>
+      <c r="F190" t="s">
         <v>363</v>
-      </c>
-      <c r="F190" t="s">
-        <v>364</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8583,10 +8580,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>364</v>
+      </c>
+      <c r="F191" t="s">
         <v>365</v>
-      </c>
-      <c r="F191" t="s">
-        <v>366</v>
       </c>
       <c r="G191" t="n">
         <v>4</v>
@@ -8612,10 +8609,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>366</v>
+      </c>
+      <c r="F192" t="s">
         <v>367</v>
-      </c>
-      <c r="F192" t="s">
-        <v>368</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8641,10 +8638,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>368</v>
+      </c>
+      <c r="F193" t="s">
         <v>369</v>
-      </c>
-      <c r="F193" t="s">
-        <v>370</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8670,10 +8667,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>370</v>
+      </c>
+      <c r="F194" t="s">
         <v>371</v>
-      </c>
-      <c r="F194" t="s">
-        <v>372</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8699,10 +8696,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>372</v>
+      </c>
+      <c r="F195" t="s">
         <v>373</v>
-      </c>
-      <c r="F195" t="s">
-        <v>374</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -8728,10 +8725,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>374</v>
+      </c>
+      <c r="F196" t="s">
         <v>375</v>
-      </c>
-      <c r="F196" t="s">
-        <v>376</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8757,10 +8754,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>376</v>
+      </c>
+      <c r="F197" t="s">
         <v>377</v>
-      </c>
-      <c r="F197" t="s">
-        <v>378</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8786,10 +8783,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>378</v>
+      </c>
+      <c r="F198" t="s">
         <v>379</v>
-      </c>
-      <c r="F198" t="s">
-        <v>380</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8815,10 +8812,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>380</v>
+      </c>
+      <c r="F199" t="s">
         <v>381</v>
-      </c>
-      <c r="F199" t="s">
-        <v>382</v>
       </c>
       <c r="G199" t="n">
         <v>6</v>
@@ -8844,10 +8841,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>382</v>
+      </c>
+      <c r="F200" t="s">
         <v>383</v>
-      </c>
-      <c r="F200" t="s">
-        <v>384</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8873,10 +8870,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>384</v>
+      </c>
+      <c r="F201" t="s">
         <v>385</v>
-      </c>
-      <c r="F201" t="s">
-        <v>386</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8902,10 +8899,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>386</v>
+      </c>
+      <c r="F202" t="s">
         <v>387</v>
-      </c>
-      <c r="F202" t="s">
-        <v>388</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -8931,10 +8928,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>388</v>
+      </c>
+      <c r="F203" t="s">
         <v>389</v>
-      </c>
-      <c r="F203" t="s">
-        <v>390</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8960,10 +8957,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>390</v>
+      </c>
+      <c r="F204" t="s">
         <v>391</v>
-      </c>
-      <c r="F204" t="s">
-        <v>392</v>
       </c>
       <c r="G204" t="n">
         <v>2</v>
@@ -8989,10 +8986,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>392</v>
+      </c>
+      <c r="F205" t="s">
         <v>393</v>
-      </c>
-      <c r="F205" t="s">
-        <v>394</v>
       </c>
       <c r="G205" t="n">
         <v>6</v>
@@ -9018,10 +9015,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>394</v>
+      </c>
+      <c r="F206" t="s">
         <v>395</v>
-      </c>
-      <c r="F206" t="s">
-        <v>396</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9047,10 +9044,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>396</v>
+      </c>
+      <c r="F207" t="s">
         <v>397</v>
-      </c>
-      <c r="F207" t="s">
-        <v>398</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -9076,10 +9073,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>398</v>
+      </c>
+      <c r="F208" t="s">
         <v>399</v>
-      </c>
-      <c r="F208" t="s">
-        <v>400</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9105,10 +9102,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>400</v>
+      </c>
+      <c r="F209" t="s">
         <v>401</v>
-      </c>
-      <c r="F209" t="s">
-        <v>402</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -9134,10 +9131,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>402</v>
+      </c>
+      <c r="F210" t="s">
         <v>403</v>
-      </c>
-      <c r="F210" t="s">
-        <v>404</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -9163,10 +9160,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>404</v>
+      </c>
+      <c r="F211" t="s">
         <v>405</v>
-      </c>
-      <c r="F211" t="s">
-        <v>406</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -9192,10 +9189,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>406</v>
+      </c>
+      <c r="F212" t="s">
         <v>407</v>
-      </c>
-      <c r="F212" t="s">
-        <v>408</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9221,10 +9218,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>408</v>
+      </c>
+      <c r="F213" t="s">
         <v>409</v>
-      </c>
-      <c r="F213" t="s">
-        <v>410</v>
       </c>
       <c r="G213" t="n">
         <v>7</v>
@@ -9250,10 +9247,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>410</v>
+      </c>
+      <c r="F214" t="s">
         <v>411</v>
-      </c>
-      <c r="F214" t="s">
-        <v>412</v>
       </c>
       <c r="G214" t="n">
         <v>6</v>
@@ -9279,10 +9276,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>412</v>
+      </c>
+      <c r="F215" t="s">
         <v>413</v>
-      </c>
-      <c r="F215" t="s">
-        <v>414</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9308,10 +9305,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>414</v>
+      </c>
+      <c r="F216" t="s">
         <v>415</v>
-      </c>
-      <c r="F216" t="s">
-        <v>416</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9337,10 +9334,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>416</v>
+      </c>
+      <c r="F217" t="s">
         <v>417</v>
-      </c>
-      <c r="F217" t="s">
-        <v>418</v>
       </c>
       <c r="G217" t="n">
         <v>3</v>
@@ -9366,10 +9363,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>418</v>
+      </c>
+      <c r="F218" t="s">
         <v>419</v>
-      </c>
-      <c r="F218" t="s">
-        <v>420</v>
       </c>
       <c r="G218" t="n">
         <v>40</v>
@@ -9395,10 +9392,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>420</v>
+      </c>
+      <c r="F219" t="s">
         <v>421</v>
-      </c>
-      <c r="F219" t="s">
-        <v>422</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9424,10 +9421,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>422</v>
+      </c>
+      <c r="F220" t="s">
         <v>423</v>
-      </c>
-      <c r="F220" t="s">
-        <v>424</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9453,10 +9450,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>424</v>
+      </c>
+      <c r="F221" t="s">
         <v>425</v>
-      </c>
-      <c r="F221" t="s">
-        <v>426</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -9482,10 +9479,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>426</v>
+      </c>
+      <c r="F222" t="s">
         <v>427</v>
-      </c>
-      <c r="F222" t="s">
-        <v>428</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9511,10 +9508,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>428</v>
+      </c>
+      <c r="F223" t="s">
         <v>429</v>
-      </c>
-      <c r="F223" t="s">
-        <v>430</v>
       </c>
       <c r="G223" t="n">
         <v>5</v>
@@ -9540,10 +9537,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>430</v>
+      </c>
+      <c r="F224" t="s">
         <v>431</v>
-      </c>
-      <c r="F224" t="s">
-        <v>432</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9569,10 +9566,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>432</v>
+      </c>
+      <c r="F225" t="s">
         <v>433</v>
-      </c>
-      <c r="F225" t="s">
-        <v>434</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9598,10 +9595,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>434</v>
+      </c>
+      <c r="F226" t="s">
         <v>435</v>
-      </c>
-      <c r="F226" t="s">
-        <v>436</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9627,10 +9624,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>436</v>
+      </c>
+      <c r="F227" t="s">
         <v>437</v>
-      </c>
-      <c r="F227" t="s">
-        <v>438</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9656,10 +9653,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>438</v>
+      </c>
+      <c r="F228" t="s">
         <v>439</v>
-      </c>
-      <c r="F228" t="s">
-        <v>440</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9685,10 +9682,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>440</v>
+      </c>
+      <c r="F229" t="s">
         <v>441</v>
-      </c>
-      <c r="F229" t="s">
-        <v>442</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9714,10 +9711,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>442</v>
+      </c>
+      <c r="F230" t="s">
         <v>443</v>
-      </c>
-      <c r="F230" t="s">
-        <v>444</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9743,10 +9740,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>444</v>
+      </c>
+      <c r="F231" t="s">
         <v>445</v>
-      </c>
-      <c r="F231" t="s">
-        <v>446</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9772,10 +9769,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>446</v>
+      </c>
+      <c r="F232" t="s">
         <v>447</v>
-      </c>
-      <c r="F232" t="s">
-        <v>448</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9801,10 +9798,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>448</v>
+      </c>
+      <c r="F233" t="s">
         <v>449</v>
-      </c>
-      <c r="F233" t="s">
-        <v>450</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9830,10 +9827,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>450</v>
+      </c>
+      <c r="F234" t="s">
         <v>451</v>
-      </c>
-      <c r="F234" t="s">
-        <v>452</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9859,10 +9856,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>452</v>
+      </c>
+      <c r="F235" t="s">
         <v>453</v>
-      </c>
-      <c r="F235" t="s">
-        <v>454</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9888,10 +9885,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>454</v>
+      </c>
+      <c r="F236" t="s">
         <v>455</v>
-      </c>
-      <c r="F236" t="s">
-        <v>456</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9917,10 +9914,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>456</v>
+      </c>
+      <c r="F237" t="s">
         <v>457</v>
-      </c>
-      <c r="F237" t="s">
-        <v>458</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9946,10 +9943,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>458</v>
+      </c>
+      <c r="F238" t="s">
         <v>459</v>
-      </c>
-      <c r="F238" t="s">
-        <v>460</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9975,10 +9972,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>460</v>
+      </c>
+      <c r="F239" t="s">
         <v>461</v>
-      </c>
-      <c r="F239" t="s">
-        <v>462</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -10004,10 +10001,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>462</v>
+      </c>
+      <c r="F240" t="s">
         <v>463</v>
-      </c>
-      <c r="F240" t="s">
-        <v>464</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -10033,10 +10030,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>464</v>
+      </c>
+      <c r="F241" t="s">
         <v>465</v>
-      </c>
-      <c r="F241" t="s">
-        <v>466</v>
       </c>
       <c r="G241" t="n">
         <v>2</v>
@@ -10062,10 +10059,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>466</v>
+      </c>
+      <c r="F242" t="s">
         <v>467</v>
-      </c>
-      <c r="F242" t="s">
-        <v>468</v>
       </c>
       <c r="G242" t="n">
         <v>3</v>
@@ -10091,10 +10088,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>468</v>
+      </c>
+      <c r="F243" t="s">
         <v>469</v>
-      </c>
-      <c r="F243" t="s">
-        <v>470</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10120,10 +10117,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>470</v>
+      </c>
+      <c r="F244" t="s">
         <v>471</v>
-      </c>
-      <c r="F244" t="s">
-        <v>472</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10149,10 +10146,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>472</v>
+      </c>
+      <c r="F245" t="s">
         <v>473</v>
-      </c>
-      <c r="F245" t="s">
-        <v>474</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10178,10 +10175,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
+        <v>474</v>
+      </c>
+      <c r="F246" t="s">
         <v>475</v>
-      </c>
-      <c r="F246" t="s">
-        <v>476</v>
       </c>
       <c r="G246" t="n">
         <v>8</v>
@@ -10207,10 +10204,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
+        <v>476</v>
+      </c>
+      <c r="F247" t="s">
         <v>477</v>
-      </c>
-      <c r="F247" t="s">
-        <v>478</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10236,10 +10233,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
+        <v>478</v>
+      </c>
+      <c r="F248" t="s">
         <v>479</v>
-      </c>
-      <c r="F248" t="s">
-        <v>480</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10265,10 +10262,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>480</v>
+      </c>
+      <c r="F249" t="s">
         <v>481</v>
-      </c>
-      <c r="F249" t="s">
-        <v>482</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10294,10 +10291,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>482</v>
+      </c>
+      <c r="F250" t="s">
         <v>483</v>
-      </c>
-      <c r="F250" t="s">
-        <v>484</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10323,10 +10320,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
+        <v>484</v>
+      </c>
+      <c r="F251" t="s">
         <v>485</v>
-      </c>
-      <c r="F251" t="s">
-        <v>486</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10352,10 +10349,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
+        <v>486</v>
+      </c>
+      <c r="F252" t="s">
         <v>487</v>
-      </c>
-      <c r="F252" t="s">
-        <v>488</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10381,10 +10378,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
+        <v>488</v>
+      </c>
+      <c r="F253" t="s">
         <v>489</v>
-      </c>
-      <c r="F253" t="s">
-        <v>490</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10410,10 +10407,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
+        <v>490</v>
+      </c>
+      <c r="F254" t="s">
         <v>491</v>
-      </c>
-      <c r="F254" t="s">
-        <v>492</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10439,10 +10436,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
+        <v>492</v>
+      </c>
+      <c r="F255" t="s">
         <v>493</v>
-      </c>
-      <c r="F255" t="s">
-        <v>494</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10468,10 +10465,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
+        <v>494</v>
+      </c>
+      <c r="F256" t="s">
         <v>495</v>
-      </c>
-      <c r="F256" t="s">
-        <v>496</v>
       </c>
       <c r="G256" t="n">
         <v>12</v>
@@ -10497,10 +10494,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
+        <v>496</v>
+      </c>
+      <c r="F257" t="s">
         <v>497</v>
-      </c>
-      <c r="F257" t="s">
-        <v>498</v>
       </c>
       <c r="G257" t="n">
         <v>5</v>
@@ -10526,10 +10523,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
+        <v>498</v>
+      </c>
+      <c r="F258" t="s">
         <v>499</v>
-      </c>
-      <c r="F258" t="s">
-        <v>500</v>
       </c>
       <c r="G258" t="n">
         <v>2</v>
@@ -10555,10 +10552,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
+        <v>500</v>
+      </c>
+      <c r="F259" t="s">
         <v>501</v>
-      </c>
-      <c r="F259" t="s">
-        <v>502</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10584,10 +10581,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
+        <v>502</v>
+      </c>
+      <c r="F260" t="s">
         <v>503</v>
-      </c>
-      <c r="F260" t="s">
-        <v>504</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10613,10 +10610,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
+        <v>504</v>
+      </c>
+      <c r="F261" t="s">
         <v>505</v>
-      </c>
-      <c r="F261" t="s">
-        <v>506</v>
       </c>
       <c r="G261" t="n">
         <v>2</v>
@@ -10642,10 +10639,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
+        <v>506</v>
+      </c>
+      <c r="F262" t="s">
         <v>507</v>
-      </c>
-      <c r="F262" t="s">
-        <v>508</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10671,10 +10668,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
+        <v>508</v>
+      </c>
+      <c r="F263" t="s">
         <v>509</v>
-      </c>
-      <c r="F263" t="s">
-        <v>510</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10700,10 +10697,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
+        <v>510</v>
+      </c>
+      <c r="F264" t="s">
         <v>511</v>
-      </c>
-      <c r="F264" t="s">
-        <v>512</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10729,10 +10726,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
+        <v>512</v>
+      </c>
+      <c r="F265" t="s">
         <v>513</v>
-      </c>
-      <c r="F265" t="s">
-        <v>514</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10758,10 +10755,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
+        <v>514</v>
+      </c>
+      <c r="F266" t="s">
         <v>515</v>
-      </c>
-      <c r="F266" t="s">
-        <v>516</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10787,10 +10784,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
+        <v>516</v>
+      </c>
+      <c r="F267" t="s">
         <v>517</v>
-      </c>
-      <c r="F267" t="s">
-        <v>518</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10816,10 +10813,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
+        <v>518</v>
+      </c>
+      <c r="F268" t="s">
         <v>519</v>
-      </c>
-      <c r="F268" t="s">
-        <v>520</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10845,10 +10842,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
+        <v>520</v>
+      </c>
+      <c r="F269" t="s">
         <v>521</v>
-      </c>
-      <c r="F269" t="s">
-        <v>522</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10874,10 +10871,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
+        <v>522</v>
+      </c>
+      <c r="F270" t="s">
         <v>523</v>
-      </c>
-      <c r="F270" t="s">
-        <v>524</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10903,10 +10900,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
+        <v>524</v>
+      </c>
+      <c r="F271" t="s">
         <v>525</v>
-      </c>
-      <c r="F271" t="s">
-        <v>526</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10932,10 +10929,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
+        <v>526</v>
+      </c>
+      <c r="F272" t="s">
         <v>527</v>
-      </c>
-      <c r="F272" t="s">
-        <v>528</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10961,10 +10958,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
+        <v>528</v>
+      </c>
+      <c r="F273" t="s">
         <v>529</v>
-      </c>
-      <c r="F273" t="s">
-        <v>530</v>
       </c>
       <c r="G273" t="n">
         <v>2</v>
@@ -10990,10 +10987,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
+        <v>530</v>
+      </c>
+      <c r="F274" t="s">
         <v>531</v>
-      </c>
-      <c r="F274" t="s">
-        <v>532</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11019,10 +11016,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
+        <v>532</v>
+      </c>
+      <c r="F275" t="s">
         <v>533</v>
-      </c>
-      <c r="F275" t="s">
-        <v>534</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -11048,10 +11045,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
+        <v>534</v>
+      </c>
+      <c r="F276" t="s">
         <v>535</v>
-      </c>
-      <c r="F276" t="s">
-        <v>536</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11077,10 +11074,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
+        <v>536</v>
+      </c>
+      <c r="F277" t="s">
         <v>537</v>
-      </c>
-      <c r="F277" t="s">
-        <v>538</v>
       </c>
       <c r="G277" t="n">
         <v>2</v>
@@ -11106,10 +11103,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
+        <v>538</v>
+      </c>
+      <c r="F278" t="s">
         <v>539</v>
-      </c>
-      <c r="F278" t="s">
-        <v>540</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11135,10 +11132,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
+        <v>540</v>
+      </c>
+      <c r="F279" t="s">
         <v>541</v>
-      </c>
-      <c r="F279" t="s">
-        <v>542</v>
       </c>
       <c r="G279" t="n">
         <v>5</v>
@@ -11164,10 +11161,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
+        <v>542</v>
+      </c>
+      <c r="F280" t="s">
         <v>543</v>
-      </c>
-      <c r="F280" t="s">
-        <v>544</v>
       </c>
       <c r="G280" t="n">
         <v>2</v>
@@ -11193,10 +11190,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
+        <v>544</v>
+      </c>
+      <c r="F281" t="s">
         <v>545</v>
-      </c>
-      <c r="F281" t="s">
-        <v>546</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11222,10 +11219,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
+        <v>546</v>
+      </c>
+      <c r="F282" t="s">
         <v>547</v>
-      </c>
-      <c r="F282" t="s">
-        <v>548</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11251,10 +11248,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
+        <v>548</v>
+      </c>
+      <c r="F283" t="s">
         <v>549</v>
-      </c>
-      <c r="F283" t="s">
-        <v>550</v>
       </c>
       <c r="G283" t="n">
         <v>2</v>
@@ -11280,10 +11277,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
+        <v>550</v>
+      </c>
+      <c r="F284" t="s">
         <v>551</v>
-      </c>
-      <c r="F284" t="s">
-        <v>552</v>
       </c>
       <c r="G284" t="n">
         <v>4</v>
@@ -11309,10 +11306,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
+        <v>552</v>
+      </c>
+      <c r="F285" t="s">
         <v>553</v>
-      </c>
-      <c r="F285" t="s">
-        <v>554</v>
       </c>
       <c r="G285" t="n">
         <v>2</v>
@@ -11338,10 +11335,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
+        <v>554</v>
+      </c>
+      <c r="F286" t="s">
         <v>555</v>
-      </c>
-      <c r="F286" t="s">
-        <v>556</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11367,10 +11364,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
+        <v>556</v>
+      </c>
+      <c r="F287" t="s">
         <v>557</v>
-      </c>
-      <c r="F287" t="s">
-        <v>558</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11396,10 +11393,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
+        <v>558</v>
+      </c>
+      <c r="F288" t="s">
         <v>559</v>
-      </c>
-      <c r="F288" t="s">
-        <v>560</v>
       </c>
       <c r="G288" t="n">
         <v>2</v>
@@ -11425,10 +11422,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
+        <v>560</v>
+      </c>
+      <c r="F289" t="s">
         <v>561</v>
-      </c>
-      <c r="F289" t="s">
-        <v>562</v>
       </c>
       <c r="G289" t="n">
         <v>2</v>
@@ -11454,10 +11451,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
+        <v>562</v>
+      </c>
+      <c r="F290" t="s">
         <v>563</v>
-      </c>
-      <c r="F290" t="s">
-        <v>564</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11483,10 +11480,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
+        <v>564</v>
+      </c>
+      <c r="F291" t="s">
         <v>565</v>
-      </c>
-      <c r="F291" t="s">
-        <v>566</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11512,10 +11509,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
+        <v>566</v>
+      </c>
+      <c r="F292" t="s">
         <v>567</v>
-      </c>
-      <c r="F292" t="s">
-        <v>568</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11541,10 +11538,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
+        <v>568</v>
+      </c>
+      <c r="F293" t="s">
         <v>569</v>
-      </c>
-      <c r="F293" t="s">
-        <v>570</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11570,10 +11567,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
+        <v>570</v>
+      </c>
+      <c r="F294" t="s">
         <v>571</v>
-      </c>
-      <c r="F294" t="s">
-        <v>572</v>
       </c>
       <c r="G294" t="n">
         <v>2</v>
@@ -11599,10 +11596,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
+        <v>572</v>
+      </c>
+      <c r="F295" t="s">
         <v>573</v>
-      </c>
-      <c r="F295" t="s">
-        <v>574</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11628,10 +11625,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
+        <v>574</v>
+      </c>
+      <c r="F296" t="s">
         <v>575</v>
-      </c>
-      <c r="F296" t="s">
-        <v>576</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11657,10 +11654,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
+        <v>576</v>
+      </c>
+      <c r="F297" t="s">
         <v>577</v>
-      </c>
-      <c r="F297" t="s">
-        <v>578</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11686,10 +11683,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
+        <v>578</v>
+      </c>
+      <c r="F298" t="s">
         <v>579</v>
-      </c>
-      <c r="F298" t="s">
-        <v>580</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11715,10 +11712,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
+        <v>580</v>
+      </c>
+      <c r="F299" t="s">
         <v>581</v>
-      </c>
-      <c r="F299" t="s">
-        <v>582</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11744,10 +11741,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
+        <v>582</v>
+      </c>
+      <c r="F300" t="s">
         <v>583</v>
-      </c>
-      <c r="F300" t="s">
-        <v>584</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11773,10 +11770,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
+        <v>584</v>
+      </c>
+      <c r="F301" t="s">
         <v>585</v>
-      </c>
-      <c r="F301" t="s">
-        <v>586</v>
       </c>
       <c r="G301" t="n">
         <v>2</v>
@@ -11802,10 +11799,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
+        <v>586</v>
+      </c>
+      <c r="F302" t="s">
         <v>587</v>
-      </c>
-      <c r="F302" t="s">
-        <v>588</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11831,10 +11828,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
+        <v>588</v>
+      </c>
+      <c r="F303" t="s">
         <v>589</v>
-      </c>
-      <c r="F303" t="s">
-        <v>590</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11860,10 +11857,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
+        <v>590</v>
+      </c>
+      <c r="F304" t="s">
         <v>591</v>
-      </c>
-      <c r="F304" t="s">
-        <v>592</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11889,10 +11886,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
+        <v>592</v>
+      </c>
+      <c r="F305" t="s">
         <v>593</v>
-      </c>
-      <c r="F305" t="s">
-        <v>594</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11918,10 +11915,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
+        <v>594</v>
+      </c>
+      <c r="F306" t="s">
         <v>595</v>
-      </c>
-      <c r="F306" t="s">
-        <v>596</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11947,10 +11944,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
+        <v>596</v>
+      </c>
+      <c r="F307" t="s">
         <v>597</v>
-      </c>
-      <c r="F307" t="s">
-        <v>598</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11976,10 +11973,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
+        <v>598</v>
+      </c>
+      <c r="F308" t="s">
         <v>599</v>
-      </c>
-      <c r="F308" t="s">
-        <v>600</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12005,10 +12002,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
+        <v>600</v>
+      </c>
+      <c r="F309" t="s">
         <v>601</v>
-      </c>
-      <c r="F309" t="s">
-        <v>602</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12034,10 +12031,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
+        <v>602</v>
+      </c>
+      <c r="F310" t="s">
         <v>603</v>
-      </c>
-      <c r="F310" t="s">
-        <v>604</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12063,10 +12060,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
+        <v>604</v>
+      </c>
+      <c r="F311" t="s">
         <v>605</v>
-      </c>
-      <c r="F311" t="s">
-        <v>606</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12092,10 +12089,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
+        <v>606</v>
+      </c>
+      <c r="F312" t="s">
         <v>607</v>
-      </c>
-      <c r="F312" t="s">
-        <v>608</v>
       </c>
       <c r="G312" t="n">
         <v>2</v>
@@ -12121,10 +12118,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
+        <v>608</v>
+      </c>
+      <c r="F313" t="s">
         <v>609</v>
-      </c>
-      <c r="F313" t="s">
-        <v>610</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12150,10 +12147,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
+        <v>610</v>
+      </c>
+      <c r="F314" t="s">
         <v>611</v>
-      </c>
-      <c r="F314" t="s">
-        <v>612</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12179,10 +12176,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
+        <v>612</v>
+      </c>
+      <c r="F315" t="s">
         <v>613</v>
-      </c>
-      <c r="F315" t="s">
-        <v>614</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12208,10 +12205,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
+        <v>614</v>
+      </c>
+      <c r="F316" t="s">
         <v>615</v>
-      </c>
-      <c r="F316" t="s">
-        <v>616</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12237,10 +12234,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
+        <v>616</v>
+      </c>
+      <c r="F317" t="s">
         <v>617</v>
-      </c>
-      <c r="F317" t="s">
-        <v>618</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12266,10 +12263,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
+        <v>618</v>
+      </c>
+      <c r="F318" t="s">
         <v>619</v>
-      </c>
-      <c r="F318" t="s">
-        <v>620</v>
       </c>
       <c r="G318" t="n">
         <v>4</v>
@@ -12295,10 +12292,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
+        <v>620</v>
+      </c>
+      <c r="F319" t="s">
         <v>621</v>
-      </c>
-      <c r="F319" t="s">
-        <v>622</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12324,10 +12321,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
+        <v>622</v>
+      </c>
+      <c r="F320" t="s">
         <v>623</v>
-      </c>
-      <c r="F320" t="s">
-        <v>624</v>
       </c>
       <c r="G320" t="n">
         <v>10</v>
@@ -12353,10 +12350,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
+        <v>624</v>
+      </c>
+      <c r="F321" t="s">
         <v>625</v>
-      </c>
-      <c r="F321" t="s">
-        <v>626</v>
       </c>
       <c r="G321" t="n">
         <v>2</v>
@@ -12382,10 +12379,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
+        <v>626</v>
+      </c>
+      <c r="F322" t="s">
         <v>627</v>
-      </c>
-      <c r="F322" t="s">
-        <v>628</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12411,10 +12408,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
+        <v>628</v>
+      </c>
+      <c r="F323" t="s">
         <v>629</v>
-      </c>
-      <c r="F323" t="s">
-        <v>630</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12440,10 +12437,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
+        <v>630</v>
+      </c>
+      <c r="F324" t="s">
         <v>631</v>
-      </c>
-      <c r="F324" t="s">
-        <v>632</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12469,10 +12466,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
+        <v>632</v>
+      </c>
+      <c r="F325" t="s">
         <v>633</v>
-      </c>
-      <c r="F325" t="s">
-        <v>634</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12498,10 +12495,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
+        <v>634</v>
+      </c>
+      <c r="F326" t="s">
         <v>635</v>
-      </c>
-      <c r="F326" t="s">
-        <v>636</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12527,10 +12524,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
+        <v>636</v>
+      </c>
+      <c r="F327" t="s">
         <v>637</v>
-      </c>
-      <c r="F327" t="s">
-        <v>638</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12556,10 +12553,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
+        <v>638</v>
+      </c>
+      <c r="F328" t="s">
         <v>639</v>
-      </c>
-      <c r="F328" t="s">
-        <v>640</v>
       </c>
       <c r="G328" t="n">
         <v>2</v>
@@ -12585,10 +12582,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
+        <v>640</v>
+      </c>
+      <c r="F329" t="s">
         <v>641</v>
-      </c>
-      <c r="F329" t="s">
-        <v>642</v>
       </c>
       <c r="G329" t="n">
         <v>17</v>
@@ -12614,10 +12611,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
+        <v>642</v>
+      </c>
+      <c r="F330" t="s">
         <v>643</v>
-      </c>
-      <c r="F330" t="s">
-        <v>644</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12643,10 +12640,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
+        <v>644</v>
+      </c>
+      <c r="F331" t="s">
         <v>645</v>
-      </c>
-      <c r="F331" t="s">
-        <v>646</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12672,10 +12669,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
+        <v>646</v>
+      </c>
+      <c r="F332" t="s">
         <v>647</v>
-      </c>
-      <c r="F332" t="s">
-        <v>648</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12701,10 +12698,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
+        <v>648</v>
+      </c>
+      <c r="F333" t="s">
         <v>649</v>
-      </c>
-      <c r="F333" t="s">
-        <v>650</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12730,10 +12727,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
+        <v>650</v>
+      </c>
+      <c r="F334" t="s">
         <v>651</v>
-      </c>
-      <c r="F334" t="s">
-        <v>652</v>
       </c>
       <c r="G334" t="n">
         <v>8</v>
@@ -12759,10 +12756,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
+        <v>652</v>
+      </c>
+      <c r="F335" t="s">
         <v>653</v>
-      </c>
-      <c r="F335" t="s">
-        <v>654</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12788,10 +12785,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
+        <v>654</v>
+      </c>
+      <c r="F336" t="s">
         <v>655</v>
-      </c>
-      <c r="F336" t="s">
-        <v>656</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12817,10 +12814,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
+        <v>656</v>
+      </c>
+      <c r="F337" t="s">
         <v>657</v>
-      </c>
-      <c r="F337" t="s">
-        <v>658</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12846,10 +12843,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
+        <v>658</v>
+      </c>
+      <c r="F338" t="s">
         <v>659</v>
-      </c>
-      <c r="F338" t="s">
-        <v>660</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12875,10 +12872,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
+        <v>660</v>
+      </c>
+      <c r="F339" t="s">
         <v>661</v>
-      </c>
-      <c r="F339" t="s">
-        <v>662</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12904,10 +12901,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
+        <v>662</v>
+      </c>
+      <c r="F340" t="s">
         <v>663</v>
-      </c>
-      <c r="F340" t="s">
-        <v>664</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12933,10 +12930,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
+        <v>664</v>
+      </c>
+      <c r="F341" t="s">
         <v>665</v>
-      </c>
-      <c r="F341" t="s">
-        <v>666</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12962,10 +12959,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
+        <v>666</v>
+      </c>
+      <c r="F342" t="s">
         <v>667</v>
-      </c>
-      <c r="F342" t="s">
-        <v>668</v>
       </c>
       <c r="G342" t="n">
         <v>3</v>
@@ -12991,10 +12988,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
+        <v>668</v>
+      </c>
+      <c r="F343" t="s">
         <v>669</v>
-      </c>
-      <c r="F343" t="s">
-        <v>670</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13020,10 +13017,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
+        <v>670</v>
+      </c>
+      <c r="F344" t="s">
         <v>671</v>
-      </c>
-      <c r="F344" t="s">
-        <v>672</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13049,10 +13046,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
+        <v>672</v>
+      </c>
+      <c r="F345" t="s">
         <v>673</v>
-      </c>
-      <c r="F345" t="s">
-        <v>674</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13078,10 +13075,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
+        <v>674</v>
+      </c>
+      <c r="F346" t="s">
         <v>675</v>
-      </c>
-      <c r="F346" t="s">
-        <v>676</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13107,10 +13104,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
+        <v>676</v>
+      </c>
+      <c r="F347" t="s">
         <v>677</v>
-      </c>
-      <c r="F347" t="s">
-        <v>678</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13136,10 +13133,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
+        <v>678</v>
+      </c>
+      <c r="F348" t="s">
         <v>679</v>
-      </c>
-      <c r="F348" t="s">
-        <v>680</v>
       </c>
       <c r="G348" t="n">
         <v>7</v>
@@ -13165,10 +13162,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
+        <v>680</v>
+      </c>
+      <c r="F349" t="s">
         <v>681</v>
-      </c>
-      <c r="F349" t="s">
-        <v>682</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13194,10 +13191,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
+        <v>682</v>
+      </c>
+      <c r="F350" t="s">
         <v>683</v>
-      </c>
-      <c r="F350" t="s">
-        <v>684</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13223,10 +13220,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
+        <v>684</v>
+      </c>
+      <c r="F351" t="s">
         <v>685</v>
-      </c>
-      <c r="F351" t="s">
-        <v>686</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13252,10 +13249,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
+        <v>686</v>
+      </c>
+      <c r="F352" t="s">
         <v>687</v>
-      </c>
-      <c r="F352" t="s">
-        <v>688</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13281,10 +13278,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
+        <v>688</v>
+      </c>
+      <c r="F353" t="s">
         <v>689</v>
-      </c>
-      <c r="F353" t="s">
-        <v>690</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13310,10 +13307,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
+        <v>690</v>
+      </c>
+      <c r="F354" t="s">
         <v>691</v>
-      </c>
-      <c r="F354" t="s">
-        <v>692</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13339,10 +13336,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
+        <v>692</v>
+      </c>
+      <c r="F355" t="s">
         <v>693</v>
-      </c>
-      <c r="F355" t="s">
-        <v>694</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13368,10 +13365,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
+        <v>694</v>
+      </c>
+      <c r="F356" t="s">
         <v>695</v>
-      </c>
-      <c r="F356" t="s">
-        <v>696</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13397,10 +13394,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
+        <v>696</v>
+      </c>
+      <c r="F357" t="s">
         <v>697</v>
-      </c>
-      <c r="F357" t="s">
-        <v>698</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13426,10 +13423,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
+        <v>698</v>
+      </c>
+      <c r="F358" t="s">
         <v>699</v>
-      </c>
-      <c r="F358" t="s">
-        <v>700</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13455,10 +13452,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
+        <v>700</v>
+      </c>
+      <c r="F359" t="s">
         <v>701</v>
-      </c>
-      <c r="F359" t="s">
-        <v>702</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13484,10 +13481,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
+        <v>702</v>
+      </c>
+      <c r="F360" t="s">
         <v>703</v>
-      </c>
-      <c r="F360" t="s">
-        <v>704</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13513,10 +13510,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
+        <v>704</v>
+      </c>
+      <c r="F361" t="s">
         <v>705</v>
-      </c>
-      <c r="F361" t="s">
-        <v>706</v>
       </c>
       <c r="G361" t="n">
         <v>16</v>
@@ -13542,10 +13539,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
+        <v>706</v>
+      </c>
+      <c r="F362" t="s">
         <v>707</v>
-      </c>
-      <c r="F362" t="s">
-        <v>708</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13571,10 +13568,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
+        <v>708</v>
+      </c>
+      <c r="F363" t="s">
         <v>709</v>
-      </c>
-      <c r="F363" t="s">
-        <v>710</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13600,10 +13597,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
+        <v>710</v>
+      </c>
+      <c r="F364" t="s">
         <v>711</v>
-      </c>
-      <c r="F364" t="s">
-        <v>712</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13629,10 +13626,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
+        <v>712</v>
+      </c>
+      <c r="F365" t="s">
         <v>713</v>
-      </c>
-      <c r="F365" t="s">
-        <v>714</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13658,10 +13655,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
+        <v>714</v>
+      </c>
+      <c r="F366" t="s">
         <v>715</v>
-      </c>
-      <c r="F366" t="s">
-        <v>716</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13687,10 +13684,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
+        <v>716</v>
+      </c>
+      <c r="F367" t="s">
         <v>717</v>
-      </c>
-      <c r="F367" t="s">
-        <v>718</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13716,10 +13713,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
+        <v>718</v>
+      </c>
+      <c r="F368" t="s">
         <v>719</v>
-      </c>
-      <c r="F368" t="s">
-        <v>720</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13745,10 +13742,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
+        <v>720</v>
+      </c>
+      <c r="F369" t="s">
         <v>721</v>
-      </c>
-      <c r="F369" t="s">
-        <v>722</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13774,10 +13771,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
+        <v>722</v>
+      </c>
+      <c r="F370" t="s">
         <v>723</v>
-      </c>
-      <c r="F370" t="s">
-        <v>724</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13803,10 +13800,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
+        <v>724</v>
+      </c>
+      <c r="F371" t="s">
         <v>725</v>
-      </c>
-      <c r="F371" t="s">
-        <v>726</v>
       </c>
       <c r="G371" t="n">
         <v>2</v>
@@ -13832,10 +13829,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
+        <v>726</v>
+      </c>
+      <c r="F372" t="s">
         <v>727</v>
-      </c>
-      <c r="F372" t="s">
-        <v>728</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13861,10 +13858,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
+        <v>728</v>
+      </c>
+      <c r="F373" t="s">
         <v>729</v>
-      </c>
-      <c r="F373" t="s">
-        <v>730</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13890,10 +13887,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
+        <v>730</v>
+      </c>
+      <c r="F374" t="s">
         <v>731</v>
-      </c>
-      <c r="F374" t="s">
-        <v>732</v>
       </c>
       <c r="G374" t="n">
         <v>2</v>
@@ -13919,10 +13916,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
+        <v>732</v>
+      </c>
+      <c r="F375" t="s">
         <v>733</v>
-      </c>
-      <c r="F375" t="s">
-        <v>734</v>
       </c>
       <c r="G375" t="n">
         <v>9</v>
@@ -13948,10 +13945,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
+        <v>734</v>
+      </c>
+      <c r="F376" t="s">
         <v>735</v>
-      </c>
-      <c r="F376" t="s">
-        <v>736</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13977,10 +13974,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
+        <v>736</v>
+      </c>
+      <c r="F377" t="s">
         <v>737</v>
-      </c>
-      <c r="F377" t="s">
-        <v>738</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14006,10 +14003,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
+        <v>738</v>
+      </c>
+      <c r="F378" t="s">
         <v>739</v>
-      </c>
-      <c r="F378" t="s">
-        <v>740</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14035,10 +14032,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
+        <v>740</v>
+      </c>
+      <c r="F379" t="s">
         <v>741</v>
-      </c>
-      <c r="F379" t="s">
-        <v>742</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14064,10 +14061,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
+        <v>742</v>
+      </c>
+      <c r="F380" t="s">
         <v>743</v>
-      </c>
-      <c r="F380" t="s">
-        <v>744</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14093,10 +14090,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
+        <v>744</v>
+      </c>
+      <c r="F381" t="s">
         <v>745</v>
-      </c>
-      <c r="F381" t="s">
-        <v>746</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14122,10 +14119,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
+        <v>746</v>
+      </c>
+      <c r="F382" t="s">
         <v>747</v>
-      </c>
-      <c r="F382" t="s">
-        <v>748</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14151,10 +14148,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
+        <v>748</v>
+      </c>
+      <c r="F383" t="s">
         <v>749</v>
-      </c>
-      <c r="F383" t="s">
-        <v>750</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14180,10 +14177,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
+        <v>750</v>
+      </c>
+      <c r="F384" t="s">
         <v>751</v>
-      </c>
-      <c r="F384" t="s">
-        <v>752</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14209,10 +14206,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
+        <v>752</v>
+      </c>
+      <c r="F385" t="s">
         <v>753</v>
-      </c>
-      <c r="F385" t="s">
-        <v>754</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14238,10 +14235,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
+        <v>754</v>
+      </c>
+      <c r="F386" t="s">
         <v>755</v>
-      </c>
-      <c r="F386" t="s">
-        <v>756</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14267,10 +14264,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
+        <v>756</v>
+      </c>
+      <c r="F387" t="s">
         <v>757</v>
-      </c>
-      <c r="F387" t="s">
-        <v>758</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14296,10 +14293,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
+        <v>758</v>
+      </c>
+      <c r="F388" t="s">
         <v>759</v>
-      </c>
-      <c r="F388" t="s">
-        <v>760</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14325,10 +14322,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
+        <v>760</v>
+      </c>
+      <c r="F389" t="s">
         <v>761</v>
-      </c>
-      <c r="F389" t="s">
-        <v>762</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14354,10 +14351,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
+        <v>762</v>
+      </c>
+      <c r="F390" t="s">
         <v>763</v>
-      </c>
-      <c r="F390" t="s">
-        <v>764</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14383,10 +14380,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
+        <v>764</v>
+      </c>
+      <c r="F391" t="s">
         <v>765</v>
-      </c>
-      <c r="F391" t="s">
-        <v>766</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14412,10 +14409,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
+        <v>766</v>
+      </c>
+      <c r="F392" t="s">
         <v>767</v>
-      </c>
-      <c r="F392" t="s">
-        <v>768</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14441,10 +14438,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
+        <v>768</v>
+      </c>
+      <c r="F393" t="s">
         <v>769</v>
-      </c>
-      <c r="F393" t="s">
-        <v>770</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14470,10 +14467,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
+        <v>770</v>
+      </c>
+      <c r="F394" t="s">
         <v>771</v>
-      </c>
-      <c r="F394" t="s">
-        <v>772</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14499,10 +14496,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
+        <v>772</v>
+      </c>
+      <c r="F395" t="s">
         <v>773</v>
-      </c>
-      <c r="F395" t="s">
-        <v>774</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14528,10 +14525,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
+        <v>774</v>
+      </c>
+      <c r="F396" t="s">
         <v>775</v>
-      </c>
-      <c r="F396" t="s">
-        <v>776</v>
       </c>
       <c r="G396" t="n">
         <v>2</v>
@@ -14557,10 +14554,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
+        <v>776</v>
+      </c>
+      <c r="F397" t="s">
         <v>777</v>
-      </c>
-      <c r="F397" t="s">
-        <v>778</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14586,10 +14583,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
+        <v>778</v>
+      </c>
+      <c r="F398" t="s">
         <v>779</v>
-      </c>
-      <c r="F398" t="s">
-        <v>780</v>
       </c>
       <c r="G398" t="n">
         <v>2</v>
@@ -14615,10 +14612,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
+        <v>780</v>
+      </c>
+      <c r="F399" t="s">
         <v>781</v>
-      </c>
-      <c r="F399" t="s">
-        <v>782</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14644,10 +14641,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
+        <v>782</v>
+      </c>
+      <c r="F400" t="s">
         <v>783</v>
-      </c>
-      <c r="F400" t="s">
-        <v>784</v>
       </c>
       <c r="G400" t="n">
         <v>2</v>
@@ -14673,10 +14670,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
+        <v>784</v>
+      </c>
+      <c r="F401" t="s">
         <v>785</v>
-      </c>
-      <c r="F401" t="s">
-        <v>786</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14702,10 +14699,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
+        <v>786</v>
+      </c>
+      <c r="F402" t="s">
         <v>787</v>
-      </c>
-      <c r="F402" t="s">
-        <v>788</v>
       </c>
       <c r="G402" t="n">
         <v>2</v>
@@ -14731,10 +14728,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
+        <v>788</v>
+      </c>
+      <c r="F403" t="s">
         <v>789</v>
-      </c>
-      <c r="F403" t="s">
-        <v>790</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14760,10 +14757,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
+        <v>790</v>
+      </c>
+      <c r="F404" t="s">
         <v>791</v>
-      </c>
-      <c r="F404" t="s">
-        <v>792</v>
       </c>
       <c r="G404" t="n">
         <v>2</v>
@@ -14789,10 +14786,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
+        <v>792</v>
+      </c>
+      <c r="F405" t="s">
         <v>793</v>
-      </c>
-      <c r="F405" t="s">
-        <v>794</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14818,10 +14815,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
+        <v>794</v>
+      </c>
+      <c r="F406" t="s">
         <v>795</v>
-      </c>
-      <c r="F406" t="s">
-        <v>796</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14847,10 +14844,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
+        <v>796</v>
+      </c>
+      <c r="F407" t="s">
         <v>797</v>
-      </c>
-      <c r="F407" t="s">
-        <v>798</v>
       </c>
       <c r="G407" t="n">
         <v>2</v>
@@ -14876,10 +14873,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
+        <v>798</v>
+      </c>
+      <c r="F408" t="s">
         <v>799</v>
-      </c>
-      <c r="F408" t="s">
-        <v>800</v>
       </c>
       <c r="G408" t="n">
         <v>2</v>
@@ -14905,10 +14902,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
+        <v>800</v>
+      </c>
+      <c r="F409" t="s">
         <v>801</v>
-      </c>
-      <c r="F409" t="s">
-        <v>802</v>
       </c>
       <c r="G409" t="n">
         <v>2</v>
@@ -14934,10 +14931,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
+        <v>802</v>
+      </c>
+      <c r="F410" t="s">
         <v>803</v>
-      </c>
-      <c r="F410" t="s">
-        <v>804</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -14963,10 +14960,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
+        <v>804</v>
+      </c>
+      <c r="F411" t="s">
         <v>805</v>
-      </c>
-      <c r="F411" t="s">
-        <v>806</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -14992,10 +14989,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
+        <v>806</v>
+      </c>
+      <c r="F412" t="s">
         <v>807</v>
-      </c>
-      <c r="F412" t="s">
-        <v>808</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15021,10 +15018,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
+        <v>808</v>
+      </c>
+      <c r="F413" t="s">
         <v>809</v>
-      </c>
-      <c r="F413" t="s">
-        <v>810</v>
       </c>
       <c r="G413" t="n">
         <v>2</v>
@@ -15050,10 +15047,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
+        <v>810</v>
+      </c>
+      <c r="F414" t="s">
         <v>811</v>
-      </c>
-      <c r="F414" t="s">
-        <v>812</v>
       </c>
       <c r="G414" t="n">
         <v>6</v>
@@ -15079,10 +15076,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
+        <v>812</v>
+      </c>
+      <c r="F415" t="s">
         <v>813</v>
-      </c>
-      <c r="F415" t="s">
-        <v>814</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15108,10 +15105,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
+        <v>814</v>
+      </c>
+      <c r="F416" t="s">
         <v>815</v>
-      </c>
-      <c r="F416" t="s">
-        <v>816</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15137,10 +15134,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
+        <v>816</v>
+      </c>
+      <c r="F417" t="s">
         <v>817</v>
-      </c>
-      <c r="F417" t="s">
-        <v>818</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15166,10 +15163,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
+        <v>818</v>
+      </c>
+      <c r="F418" t="s">
         <v>819</v>
-      </c>
-      <c r="F418" t="s">
-        <v>820</v>
       </c>
       <c r="G418" t="n">
         <v>2</v>
@@ -15195,10 +15192,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
+        <v>820</v>
+      </c>
+      <c r="F419" t="s">
         <v>821</v>
-      </c>
-      <c r="F419" t="s">
-        <v>822</v>
       </c>
       <c r="G419" t="n">
         <v>2</v>
@@ -15224,10 +15221,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
+        <v>822</v>
+      </c>
+      <c r="F420" t="s">
         <v>823</v>
-      </c>
-      <c r="F420" t="s">
-        <v>824</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15253,10 +15250,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
+        <v>824</v>
+      </c>
+      <c r="F421" t="s">
         <v>825</v>
-      </c>
-      <c r="F421" t="s">
-        <v>826</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15282,10 +15279,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
+        <v>826</v>
+      </c>
+      <c r="F422" t="s">
         <v>827</v>
-      </c>
-      <c r="F422" t="s">
-        <v>828</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15311,10 +15308,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
+        <v>828</v>
+      </c>
+      <c r="F423" t="s">
         <v>829</v>
-      </c>
-      <c r="F423" t="s">
-        <v>830</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15340,10 +15337,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
+        <v>830</v>
+      </c>
+      <c r="F424" t="s">
         <v>831</v>
-      </c>
-      <c r="F424" t="s">
-        <v>832</v>
       </c>
       <c r="G424" t="n">
         <v>3</v>
@@ -15369,10 +15366,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
+        <v>832</v>
+      </c>
+      <c r="F425" t="s">
         <v>833</v>
-      </c>
-      <c r="F425" t="s">
-        <v>834</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15398,10 +15395,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
+        <v>834</v>
+      </c>
+      <c r="F426" t="s">
         <v>835</v>
-      </c>
-      <c r="F426" t="s">
-        <v>836</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15427,10 +15424,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
+        <v>836</v>
+      </c>
+      <c r="F427" t="s">
         <v>837</v>
-      </c>
-      <c r="F427" t="s">
-        <v>838</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15456,10 +15453,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
+        <v>838</v>
+      </c>
+      <c r="F428" t="s">
         <v>839</v>
-      </c>
-      <c r="F428" t="s">
-        <v>840</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15485,10 +15482,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
+        <v>840</v>
+      </c>
+      <c r="F429" t="s">
         <v>841</v>
-      </c>
-      <c r="F429" t="s">
-        <v>842</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15514,10 +15511,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
+        <v>842</v>
+      </c>
+      <c r="F430" t="s">
         <v>843</v>
-      </c>
-      <c r="F430" t="s">
-        <v>844</v>
       </c>
       <c r="G430" t="n">
         <v>3</v>
@@ -15543,10 +15540,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
+        <v>844</v>
+      </c>
+      <c r="F431" t="s">
         <v>845</v>
-      </c>
-      <c r="F431" t="s">
-        <v>846</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15572,10 +15569,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
+        <v>846</v>
+      </c>
+      <c r="F432" t="s">
         <v>847</v>
-      </c>
-      <c r="F432" t="s">
-        <v>848</v>
       </c>
       <c r="G432" t="n">
         <v>2</v>
@@ -15601,10 +15598,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
+        <v>848</v>
+      </c>
+      <c r="F433" t="s">
         <v>849</v>
-      </c>
-      <c r="F433" t="s">
-        <v>850</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15630,10 +15627,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
+        <v>850</v>
+      </c>
+      <c r="F434" t="s">
         <v>851</v>
-      </c>
-      <c r="F434" t="s">
-        <v>852</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15659,10 +15656,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
+        <v>852</v>
+      </c>
+      <c r="F435" t="s">
         <v>853</v>
-      </c>
-      <c r="F435" t="s">
-        <v>854</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15688,10 +15685,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
+        <v>854</v>
+      </c>
+      <c r="F436" t="s">
         <v>855</v>
-      </c>
-      <c r="F436" t="s">
-        <v>856</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15717,10 +15714,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
+        <v>856</v>
+      </c>
+      <c r="F437" t="s">
         <v>857</v>
-      </c>
-      <c r="F437" t="s">
-        <v>858</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -15746,10 +15743,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
+        <v>858</v>
+      </c>
+      <c r="F438" t="s">
         <v>859</v>
-      </c>
-      <c r="F438" t="s">
-        <v>860</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -15775,10 +15772,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
+        <v>860</v>
+      </c>
+      <c r="F439" t="s">
         <v>861</v>
-      </c>
-      <c r="F439" t="s">
-        <v>862</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -15804,10 +15801,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
+        <v>862</v>
+      </c>
+      <c r="F440" t="s">
         <v>863</v>
-      </c>
-      <c r="F440" t="s">
-        <v>864</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -15833,10 +15830,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
+        <v>864</v>
+      </c>
+      <c r="F441" t="s">
         <v>865</v>
-      </c>
-      <c r="F441" t="s">
-        <v>866</v>
       </c>
       <c r="G441" t="n">
         <v>2</v>
@@ -15862,10 +15859,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
+        <v>866</v>
+      </c>
+      <c r="F442" t="s">
         <v>867</v>
-      </c>
-      <c r="F442" t="s">
-        <v>868</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -15891,10 +15888,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
+        <v>474</v>
+      </c>
+      <c r="F443" t="s">
         <v>475</v>
-      </c>
-      <c r="F443" t="s">
-        <v>476</v>
       </c>
       <c r="G443" t="n">
         <v>2</v>
@@ -15920,10 +15917,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
+        <v>868</v>
+      </c>
+      <c r="F444" t="s">
         <v>869</v>
-      </c>
-      <c r="F444" t="s">
-        <v>870</v>
       </c>
       <c r="G444" t="n">
         <v>3</v>
@@ -15949,10 +15946,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
+        <v>870</v>
+      </c>
+      <c r="F445" t="s">
         <v>871</v>
-      </c>
-      <c r="F445" t="s">
-        <v>872</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16007,10 +16004,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
+        <v>872</v>
+      </c>
+      <c r="F447" t="s">
         <v>873</v>
-      </c>
-      <c r="F447" t="s">
-        <v>874</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16036,10 +16033,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
+        <v>874</v>
+      </c>
+      <c r="F448" t="s">
         <v>875</v>
-      </c>
-      <c r="F448" t="s">
-        <v>876</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16065,10 +16062,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
+        <v>876</v>
+      </c>
+      <c r="F449" t="s">
         <v>877</v>
-      </c>
-      <c r="F449" t="s">
-        <v>878</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16094,10 +16091,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
+        <v>878</v>
+      </c>
+      <c r="F450" t="s">
         <v>879</v>
-      </c>
-      <c r="F450" t="s">
-        <v>880</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16123,10 +16120,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
+        <v>880</v>
+      </c>
+      <c r="F451" t="s">
         <v>881</v>
-      </c>
-      <c r="F451" t="s">
-        <v>882</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16152,10 +16149,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
+        <v>882</v>
+      </c>
+      <c r="F452" t="s">
         <v>883</v>
-      </c>
-      <c r="F452" t="s">
-        <v>884</v>
       </c>
       <c r="G452" t="n">
         <v>2</v>
@@ -16181,10 +16178,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
+        <v>884</v>
+      </c>
+      <c r="F453" t="s">
         <v>885</v>
-      </c>
-      <c r="F453" t="s">
-        <v>886</v>
       </c>
       <c r="G453" t="n">
         <v>2</v>
@@ -16210,10 +16207,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
+        <v>886</v>
+      </c>
+      <c r="F454" t="s">
         <v>887</v>
-      </c>
-      <c r="F454" t="s">
-        <v>888</v>
       </c>
       <c r="G454" t="n">
         <v>4</v>
@@ -16239,10 +16236,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
+        <v>888</v>
+      </c>
+      <c r="F455" t="s">
         <v>889</v>
-      </c>
-      <c r="F455" t="s">
-        <v>890</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16268,10 +16265,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
+        <v>890</v>
+      </c>
+      <c r="F456" t="s">
         <v>891</v>
-      </c>
-      <c r="F456" t="s">
-        <v>892</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16297,10 +16294,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
+        <v>892</v>
+      </c>
+      <c r="F457" t="s">
         <v>893</v>
-      </c>
-      <c r="F457" t="s">
-        <v>894</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16326,10 +16323,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
+        <v>894</v>
+      </c>
+      <c r="F458" t="s">
         <v>895</v>
-      </c>
-      <c r="F458" t="s">
-        <v>896</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>

--- a/xlsx/右派_intext.xlsx
+++ b/xlsx/右派_intext.xlsx
@@ -29,7 +29,7 @@
     <t>派系</t>
   </si>
   <si>
-    <t>政策_政策_政治_右派</t>
+    <t>体育运动_体育运动_苏联_右派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BF%BC%E9%8B%92</t>
